--- a/CDD/Forecast temperatures.xlsx
+++ b/CDD/Forecast temperatures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel dashboard\CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F36223-129B-4925-BB3A-2F0782E421E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F434500-5C6D-41EC-9413-482095A79D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A42AFF42-5C4E-4ACB-958E-989284655373}"/>
   </bookViews>
@@ -8551,8 +8551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C7682-A92F-44B6-9728-62C9DB5A0B9C}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8625,28 +8625,28 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45860.083333333336</v>
+        <v>45863.083333333336</v>
       </c>
       <c r="B2">
-        <v>31.89</v>
+        <v>31.35</v>
       </c>
       <c r="E2">
-        <v>4.79</v>
+        <v>3.89</v>
       </c>
       <c r="F2">
-        <v>335.67</v>
+        <v>329.58</v>
       </c>
       <c r="G2">
-        <v>22.19</v>
+        <v>26.78</v>
       </c>
       <c r="H2">
-        <v>30.41</v>
+        <v>30.32</v>
       </c>
       <c r="L2">
-        <v>7.3</v>
+        <v>39.06</v>
       </c>
       <c r="N2">
-        <v>1002.45</v>
+        <v>998.76</v>
       </c>
       <c r="O2">
         <v>0.09</v>
@@ -8658,39 +8658,39 @@
         <v>0.2</v>
       </c>
       <c r="R2">
-        <v>35.049999999999997</v>
+        <v>35.15</v>
       </c>
       <c r="S2">
-        <v>34.76</v>
+        <v>34.89</v>
       </c>
       <c r="T2">
-        <v>32.79</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45860.208333333336</v>
+        <v>45863.208333333336</v>
       </c>
       <c r="B3">
-        <v>31.09</v>
+        <v>30.49</v>
       </c>
       <c r="C3">
-        <v>30.42</v>
+        <v>29.97</v>
       </c>
       <c r="D3">
-        <v>32.119999999999997</v>
+        <v>31.61</v>
       </c>
       <c r="E3">
-        <v>4.55</v>
+        <v>3.96</v>
       </c>
       <c r="F3">
-        <v>143.56</v>
+        <v>133.31</v>
       </c>
       <c r="G3">
-        <v>23.1</v>
+        <v>27.56</v>
       </c>
       <c r="H3">
-        <v>29.67</v>
+        <v>29.46</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.21</v>
+        <v>26.05</v>
       </c>
       <c r="M3">
-        <v>5.89</v>
+        <v>5.45</v>
       </c>
       <c r="N3">
-        <v>1003.36</v>
+        <v>999.8</v>
       </c>
       <c r="O3">
         <v>0.09</v>
@@ -8720,39 +8720,39 @@
         <v>0.2</v>
       </c>
       <c r="R3">
-        <v>33.19</v>
+        <v>33.15</v>
       </c>
       <c r="S3">
-        <v>34.729999999999997</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="T3">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45860.333333333336</v>
+        <v>45863.333333333336</v>
       </c>
       <c r="B4">
-        <v>38.79</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C4">
-        <v>30.44</v>
+        <v>30.06</v>
       </c>
       <c r="D4">
-        <v>38.729999999999997</v>
+        <v>38.29</v>
       </c>
       <c r="E4">
-        <v>6.51</v>
+        <v>5.67</v>
       </c>
       <c r="F4">
-        <v>158.21</v>
+        <v>145.5</v>
       </c>
       <c r="G4">
-        <v>17.16</v>
+        <v>20.64</v>
       </c>
       <c r="H4">
-        <v>38.19</v>
+        <v>38.18</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -8764,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.81</v>
+        <v>14.35</v>
       </c>
       <c r="M4">
-        <v>193.82</v>
+        <v>191.11</v>
       </c>
       <c r="N4">
-        <v>1003.79</v>
+        <v>1000.1</v>
       </c>
       <c r="O4">
         <v>0.03</v>
@@ -8782,39 +8782,39 @@
         <v>0.2</v>
       </c>
       <c r="R4">
-        <v>34.479999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="S4">
-        <v>34.71</v>
+        <v>34.83</v>
       </c>
       <c r="T4">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45860.458333333336</v>
+        <v>45863.458333333336</v>
       </c>
       <c r="B5">
-        <v>43.26</v>
+        <v>42.33</v>
       </c>
       <c r="C5">
-        <v>38.75</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="D5">
-        <v>43.27</v>
+        <v>42.31</v>
       </c>
       <c r="E5">
-        <v>7.39</v>
+        <v>5.13</v>
       </c>
       <c r="F5">
-        <v>149.08000000000001</v>
+        <v>99.01</v>
       </c>
       <c r="G5">
-        <v>15.71</v>
+        <v>18.29</v>
       </c>
       <c r="H5">
-        <v>43.89</v>
+        <v>43.78</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -8826,13 +8826,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.08</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="M5">
-        <v>912.53</v>
+        <v>910.99</v>
       </c>
       <c r="N5">
-        <v>1002.66</v>
+        <v>998.71</v>
       </c>
       <c r="O5">
         <v>0.03</v>
@@ -8844,39 +8844,39 @@
         <v>0.2</v>
       </c>
       <c r="R5">
-        <v>39.340000000000003</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="S5">
-        <v>34.68</v>
+        <v>34.71</v>
       </c>
       <c r="T5">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45860.583333333336</v>
+        <v>45863.583333333336</v>
       </c>
       <c r="B6">
-        <v>43.88</v>
+        <v>43.33</v>
       </c>
       <c r="C6">
-        <v>38.75</v>
+        <v>38.35</v>
       </c>
       <c r="D6">
-        <v>44.23</v>
+        <v>43.59</v>
       </c>
       <c r="E6">
-        <v>7.44</v>
+        <v>5.81</v>
       </c>
       <c r="F6">
-        <v>103.05</v>
+        <v>285.88</v>
       </c>
       <c r="G6">
-        <v>15.23</v>
+        <v>17.39</v>
       </c>
       <c r="H6">
-        <v>44.37</v>
+        <v>44.67</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -8888,13 +8888,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.8</v>
+        <v>9.84</v>
       </c>
       <c r="M6">
-        <v>924.18</v>
+        <v>924.31</v>
       </c>
       <c r="N6">
-        <v>1000.83</v>
+        <v>997.25</v>
       </c>
       <c r="O6">
         <v>0.03</v>
@@ -8906,39 +8906,39 @@
         <v>0.2</v>
       </c>
       <c r="R6">
-        <v>43.25</v>
+        <v>43.66</v>
       </c>
       <c r="S6">
-        <v>34.71</v>
+        <v>34.85</v>
       </c>
       <c r="T6">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45860.708333333336</v>
+        <v>45863.708333333336</v>
       </c>
       <c r="B7">
-        <v>41.93</v>
+        <v>41.41</v>
       </c>
       <c r="C7">
-        <v>41.87</v>
+        <v>41.42</v>
       </c>
       <c r="D7">
-        <v>43.98</v>
+        <v>43.43</v>
       </c>
       <c r="E7">
-        <v>6.13</v>
+        <v>5.2</v>
       </c>
       <c r="F7">
-        <v>107.3</v>
+        <v>288.95</v>
       </c>
       <c r="G7">
-        <v>16.350000000000001</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="H7">
-        <v>41.49</v>
+        <v>41.67</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>56.62</v>
+        <v>14.33</v>
       </c>
       <c r="M7">
-        <v>420.88</v>
+        <v>435.6</v>
       </c>
       <c r="N7">
-        <v>1001.15</v>
+        <v>997.36</v>
       </c>
       <c r="O7">
         <v>0.03</v>
@@ -8968,39 +8968,39 @@
         <v>0.2</v>
       </c>
       <c r="R7">
-        <v>43.26</v>
+        <v>43.65</v>
       </c>
       <c r="S7">
-        <v>34.83</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="T7">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45860.833333333336</v>
+        <v>45863.833333333336</v>
       </c>
       <c r="B8">
-        <v>37.99</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C8">
-        <v>37.92</v>
+        <v>37.36</v>
       </c>
       <c r="D8">
-        <v>44.01</v>
+        <v>43.38</v>
       </c>
       <c r="E8">
-        <v>4.78</v>
+        <v>4.93</v>
       </c>
       <c r="F8">
-        <v>150.25</v>
+        <v>105.91</v>
       </c>
       <c r="G8">
-        <v>18.27</v>
+        <v>21.89</v>
       </c>
       <c r="H8">
-        <v>36.700000000000003</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>62.55</v>
+        <v>20.18</v>
       </c>
       <c r="M8">
-        <v>216.21</v>
+        <v>223.46</v>
       </c>
       <c r="N8">
-        <v>1003.16</v>
+        <v>999.4</v>
       </c>
       <c r="O8">
         <v>0.03</v>
@@ -9030,39 +9030,39 @@
         <v>0.2</v>
       </c>
       <c r="R8">
-        <v>40.479999999999997</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="S8">
-        <v>34.86</v>
+        <v>34.97</v>
       </c>
       <c r="T8">
-        <v>32.799999999999997</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45860.958333333336</v>
+        <v>45863.958333333336</v>
       </c>
       <c r="B9">
-        <v>34.770000000000003</v>
+        <v>34.15</v>
       </c>
       <c r="C9">
-        <v>34.83</v>
+        <v>34.18</v>
       </c>
       <c r="D9">
-        <v>37.950000000000003</v>
+        <v>37.26</v>
       </c>
       <c r="E9">
-        <v>4.3499999999999996</v>
+        <v>4.04</v>
       </c>
       <c r="F9">
-        <v>155.11000000000001</v>
+        <v>139.08000000000001</v>
       </c>
       <c r="G9">
-        <v>19.25</v>
+        <v>22.92</v>
       </c>
       <c r="H9">
-        <v>33.19</v>
+        <v>32.89</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -9074,13 +9074,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>57.25</v>
+        <v>5.74</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1002.8</v>
+        <v>999.55</v>
       </c>
       <c r="O9">
         <v>0.03</v>
@@ -9092,39 +9092,39 @@
         <v>0.2</v>
       </c>
       <c r="R9">
-        <v>37.909999999999997</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="S9">
-        <v>34.93</v>
+        <v>35.04</v>
       </c>
       <c r="T9">
-        <v>32.83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45861.083333333336</v>
+        <v>45864.083333333336</v>
       </c>
       <c r="B10">
-        <v>32.71</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="C10">
-        <v>32.729999999999997</v>
+        <v>31.98</v>
       </c>
       <c r="D10">
-        <v>37.92</v>
+        <v>37.22</v>
       </c>
       <c r="E10">
-        <v>4.38</v>
+        <v>3.38</v>
       </c>
       <c r="F10">
-        <v>152.16</v>
+        <v>127.21</v>
       </c>
       <c r="G10">
-        <v>19.75</v>
+        <v>24.26</v>
       </c>
       <c r="H10">
-        <v>30.99</v>
+        <v>30.69</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9136,13 +9136,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>60.99</v>
+        <v>0.77</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1001.9</v>
+        <v>998.91</v>
       </c>
       <c r="O10">
         <v>0.03</v>
@@ -9154,39 +9154,39 @@
         <v>0.2</v>
       </c>
       <c r="R10">
-        <v>35.549999999999997</v>
+        <v>35.47</v>
       </c>
       <c r="S10">
-        <v>34.85</v>
+        <v>34.97</v>
       </c>
       <c r="T10">
-        <v>32.83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45861.208333333336</v>
+        <v>45864.208333333336</v>
       </c>
       <c r="B11">
-        <v>31.41</v>
+        <v>30.9</v>
       </c>
       <c r="C11">
-        <v>31.11</v>
+        <v>30.22</v>
       </c>
       <c r="D11">
-        <v>32.700000000000003</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="E11">
-        <v>4.96</v>
+        <v>1.96</v>
       </c>
       <c r="F11">
-        <v>332.63</v>
+        <v>133.86000000000001</v>
       </c>
       <c r="G11">
-        <v>20.7</v>
+        <v>24.14</v>
       </c>
       <c r="H11">
-        <v>29.81</v>
+        <v>29.53</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9198,13 +9198,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.49</v>
+        <v>0.47</v>
       </c>
       <c r="M11">
-        <v>5.69</v>
+        <v>5.31</v>
       </c>
       <c r="N11">
-        <v>1003.02</v>
+        <v>1000.41</v>
       </c>
       <c r="O11">
         <v>0.03</v>
@@ -9216,39 +9216,39 @@
         <v>0.2</v>
       </c>
       <c r="R11">
-        <v>33.619999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="S11">
-        <v>34.83</v>
+        <v>34.93</v>
       </c>
       <c r="T11">
-        <v>32.83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45861.333333333336</v>
+        <v>45864.333333333336</v>
       </c>
       <c r="B12">
-        <v>38.97</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="C12">
-        <v>31.12</v>
+        <v>30.31</v>
       </c>
       <c r="D12">
-        <v>39.049999999999997</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="E12">
-        <v>5.75</v>
+        <v>2.99</v>
       </c>
       <c r="F12">
-        <v>334.69</v>
+        <v>280.37</v>
       </c>
       <c r="G12">
-        <v>16.98</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="H12">
-        <v>38.31</v>
+        <v>37.49</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>46.86</v>
+        <v>7.53</v>
       </c>
       <c r="M12">
-        <v>186.02</v>
+        <v>191.82</v>
       </c>
       <c r="N12">
-        <v>1003.2</v>
+        <v>1001.24</v>
       </c>
       <c r="O12">
         <v>0.03</v>
@@ -9278,39 +9278,39 @@
         <v>0.2</v>
       </c>
       <c r="R12">
-        <v>34.909999999999997</v>
+        <v>34.79</v>
       </c>
       <c r="S12">
-        <v>34.799999999999997</v>
+        <v>34.92</v>
       </c>
       <c r="T12">
-        <v>32.83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45861.458333333336</v>
+        <v>45864.458333333336</v>
       </c>
       <c r="B13">
-        <v>43.46</v>
+        <v>42.95</v>
       </c>
       <c r="C13">
-        <v>38.96</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D13">
-        <v>43.51</v>
+        <v>42.94</v>
       </c>
       <c r="E13">
-        <v>6.74</v>
+        <v>4.2</v>
       </c>
       <c r="F13">
-        <v>320.97000000000003</v>
+        <v>289.92</v>
       </c>
       <c r="G13">
-        <v>16.07</v>
+        <v>15.62</v>
       </c>
       <c r="H13">
-        <v>44.31</v>
+        <v>43.29</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9322,13 +9322,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.57</v>
+        <v>3.83</v>
       </c>
       <c r="M13">
-        <v>890.88</v>
+        <v>913.22</v>
       </c>
       <c r="N13">
-        <v>1001.67</v>
+        <v>1000.19</v>
       </c>
       <c r="O13">
         <v>0.03</v>
@@ -9340,39 +9340,39 @@
         <v>0.2</v>
       </c>
       <c r="R13">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="S13">
-        <v>34.78</v>
+        <v>34.89</v>
       </c>
       <c r="T13">
-        <v>32.89</v>
+        <v>33.020000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45861.583333333336</v>
+        <v>45864.583333333336</v>
       </c>
       <c r="B14">
-        <v>44.04</v>
+        <v>44.12</v>
       </c>
       <c r="C14">
-        <v>38.909999999999997</v>
+        <v>38.22</v>
       </c>
       <c r="D14">
-        <v>44.46</v>
+        <v>44.32</v>
       </c>
       <c r="E14">
-        <v>7.99</v>
+        <v>5.36</v>
       </c>
       <c r="F14">
-        <v>315.08999999999997</v>
+        <v>282.48</v>
       </c>
       <c r="G14">
-        <v>15.45</v>
+        <v>15.37</v>
       </c>
       <c r="H14">
-        <v>44.72</v>
+        <v>44.74</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -9384,13 +9384,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.71</v>
+        <v>3.35</v>
       </c>
       <c r="M14">
-        <v>908.79</v>
+        <v>926.45</v>
       </c>
       <c r="N14">
-        <v>999.75</v>
+        <v>998.44</v>
       </c>
       <c r="O14">
         <v>0.03</v>
@@ -9402,39 +9402,39 @@
         <v>0.2</v>
       </c>
       <c r="R14">
-        <v>43.38</v>
+        <v>44.19</v>
       </c>
       <c r="S14">
-        <v>34.82</v>
+        <v>34.93</v>
       </c>
       <c r="T14">
-        <v>32.89</v>
+        <v>33.020000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45861.708333333336</v>
+        <v>45864.708333333336</v>
       </c>
       <c r="B15">
+        <v>42.2</v>
+      </c>
+      <c r="C15">
         <v>42.15</v>
-      </c>
-      <c r="C15">
-        <v>42.12</v>
       </c>
       <c r="D15">
         <v>44.26</v>
       </c>
       <c r="E15">
-        <v>6.42</v>
+        <v>4.17</v>
       </c>
       <c r="F15">
-        <v>315.79000000000002</v>
+        <v>287.76</v>
       </c>
       <c r="G15">
-        <v>16.53</v>
+        <v>16.78</v>
       </c>
       <c r="H15">
-        <v>41.73</v>
+        <v>42.3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -9446,13 +9446,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>72.16</v>
+        <v>2.61</v>
       </c>
       <c r="M15">
-        <v>408.29</v>
+        <v>435.6</v>
       </c>
       <c r="N15">
-        <v>999.43</v>
+        <v>998.82</v>
       </c>
       <c r="O15">
         <v>0.03</v>
@@ -9464,39 +9464,39 @@
         <v>0.2</v>
       </c>
       <c r="R15">
-        <v>43.54</v>
+        <v>44.23</v>
       </c>
       <c r="S15">
-        <v>34.92</v>
+        <v>35.08</v>
       </c>
       <c r="T15">
-        <v>32.89</v>
+        <v>33.020000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45861.833333333336</v>
+        <v>45864.833333333336</v>
       </c>
       <c r="B16">
-        <v>38.049999999999997</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="C16">
-        <v>38.01</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="D16">
-        <v>44.31</v>
+        <v>44.23</v>
       </c>
       <c r="E16">
-        <v>3.82</v>
+        <v>3.51</v>
       </c>
       <c r="F16">
-        <v>321.58</v>
+        <v>86.87</v>
       </c>
       <c r="G16">
-        <v>19.47</v>
+        <v>21.36</v>
       </c>
       <c r="H16">
-        <v>36.82</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -9508,13 +9508,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>83.07</v>
+        <v>7.94</v>
       </c>
       <c r="M16">
-        <v>209.61</v>
+        <v>223.38</v>
       </c>
       <c r="N16">
-        <v>1001.02</v>
+        <v>1000.98</v>
       </c>
       <c r="O16">
         <v>0.03</v>
@@ -9526,39 +9526,39 @@
         <v>0.2</v>
       </c>
       <c r="R16">
-        <v>40.869999999999997</v>
+        <v>41.2</v>
       </c>
       <c r="S16">
-        <v>35.01</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="T16">
-        <v>32.89</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45861.958333333336</v>
+        <v>45864.958333333336</v>
       </c>
       <c r="B17">
-        <v>35.49</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C17">
-        <v>35.49</v>
+        <v>34.36</v>
       </c>
       <c r="D17">
-        <v>38.17</v>
+        <v>37.64</v>
       </c>
       <c r="E17">
-        <v>4.0199999999999996</v>
+        <v>3.07</v>
       </c>
       <c r="F17">
-        <v>312.26</v>
+        <v>105.55</v>
       </c>
       <c r="G17">
-        <v>19.38</v>
+        <v>22.88</v>
       </c>
       <c r="H17">
-        <v>33.840000000000003</v>
+        <v>33.18</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>62.3</v>
+        <v>4.16</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1000.15</v>
+        <v>1000.79</v>
       </c>
       <c r="O17">
         <v>0.03</v>
@@ -9588,39 +9588,39 @@
         <v>0.2</v>
       </c>
       <c r="R17">
-        <v>38.26</v>
+        <v>38.35</v>
       </c>
       <c r="S17">
-        <v>35.01</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="T17">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45862.083333333336</v>
+        <v>45865.083333333336</v>
       </c>
       <c r="B18">
-        <v>32.82</v>
+        <v>31.93</v>
       </c>
       <c r="C18">
-        <v>32.82</v>
+        <v>31.82</v>
       </c>
       <c r="D18">
-        <v>38.090000000000003</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="E18">
-        <v>4.83</v>
+        <v>1.82</v>
       </c>
       <c r="F18">
-        <v>310.25</v>
+        <v>120.07</v>
       </c>
       <c r="G18">
-        <v>20.62</v>
+        <v>24.33</v>
       </c>
       <c r="H18">
-        <v>31.05</v>
+        <v>30.71</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9632,13 +9632,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>44.41</v>
+        <v>5.15</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>999.29</v>
+        <v>1000.26</v>
       </c>
       <c r="O18">
         <v>0.03</v>
@@ -9650,39 +9650,39 @@
         <v>0.2</v>
       </c>
       <c r="R18">
-        <v>35.97</v>
+        <v>35.79</v>
       </c>
       <c r="S18">
-        <v>34.99</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="T18">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45862.208333333336</v>
+        <v>45865.208333333336</v>
       </c>
       <c r="B19">
-        <v>31.32</v>
+        <v>31.22</v>
       </c>
       <c r="C19">
-        <v>30.88</v>
+        <v>30.45</v>
       </c>
       <c r="D19">
-        <v>32.86</v>
+        <v>32.69</v>
       </c>
       <c r="E19">
-        <v>4.6100000000000003</v>
+        <v>3.08</v>
       </c>
       <c r="F19">
-        <v>315.44</v>
+        <v>289.73</v>
       </c>
       <c r="G19">
-        <v>22.82</v>
+        <v>24.54</v>
       </c>
       <c r="H19">
-        <v>29.76</v>
+        <v>29.98</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>41.18</v>
+        <v>4.59</v>
       </c>
       <c r="M19">
-        <v>5.53</v>
+        <v>5.21</v>
       </c>
       <c r="N19">
-        <v>1000.47</v>
+        <v>1001.53</v>
       </c>
       <c r="O19">
         <v>0.03</v>
@@ -9712,39 +9712,39 @@
         <v>0.2</v>
       </c>
       <c r="R19">
-        <v>34</v>
+        <v>33.65</v>
       </c>
       <c r="S19">
-        <v>34.909999999999997</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="T19">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45862.333333333336</v>
+        <v>45865.333333333336</v>
       </c>
       <c r="B20">
-        <v>38.65</v>
+        <v>38.5</v>
       </c>
       <c r="C20">
-        <v>30.87</v>
+        <v>30.52</v>
       </c>
       <c r="D20">
-        <v>38.659999999999997</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="E20">
-        <v>6.14</v>
+        <v>4.21</v>
       </c>
       <c r="F20">
-        <v>322.27</v>
+        <v>302.57</v>
       </c>
       <c r="G20">
-        <v>18.18</v>
+        <v>18.68</v>
       </c>
       <c r="H20">
-        <v>38.119999999999997</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9756,13 +9756,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.26</v>
+        <v>5.22</v>
       </c>
       <c r="M20">
-        <v>190.04</v>
+        <v>191.15</v>
       </c>
       <c r="N20">
-        <v>1000.59</v>
+        <v>1002</v>
       </c>
       <c r="O20">
         <v>0.03</v>
@@ -9774,39 +9774,39 @@
         <v>0.2</v>
       </c>
       <c r="R20">
-        <v>35.159999999999997</v>
+        <v>34.99</v>
       </c>
       <c r="S20">
-        <v>34.86</v>
+        <v>34.92</v>
       </c>
       <c r="T20">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45862.458333333336</v>
+        <v>45865.458333333336</v>
       </c>
       <c r="B21">
-        <v>43.15</v>
+        <v>43.37</v>
       </c>
       <c r="C21">
-        <v>38.71</v>
+        <v>38.49</v>
       </c>
       <c r="D21">
-        <v>43.16</v>
+        <v>43.35</v>
       </c>
       <c r="E21">
-        <v>6.51</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F21">
-        <v>323.43</v>
+        <v>101.72</v>
       </c>
       <c r="G21">
-        <v>16.52</v>
+        <v>16.21</v>
       </c>
       <c r="H21">
-        <v>43.83</v>
+        <v>44.28</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9818,13 +9818,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.91</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="M21">
-        <v>908.43</v>
+        <v>911.51</v>
       </c>
       <c r="N21">
-        <v>999.04</v>
+        <v>1000.69</v>
       </c>
       <c r="O21">
         <v>0.03</v>
@@ -9836,39 +9836,39 @@
         <v>0.2</v>
       </c>
       <c r="R21">
-        <v>39.770000000000003</v>
+        <v>40.07</v>
       </c>
       <c r="S21">
-        <v>34.86</v>
+        <v>34.92</v>
       </c>
       <c r="T21">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45862.583333333336</v>
+        <v>45865.583333333336</v>
       </c>
       <c r="B22">
-        <v>43.99</v>
+        <v>44.4</v>
       </c>
       <c r="C22">
-        <v>38.71</v>
+        <v>38.51</v>
       </c>
       <c r="D22">
-        <v>44.32</v>
+        <v>44.62</v>
       </c>
       <c r="E22">
-        <v>7.92</v>
+        <v>4.92</v>
       </c>
       <c r="F22">
-        <v>313.58999999999997</v>
+        <v>99.09</v>
       </c>
       <c r="G22">
-        <v>16.670000000000002</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H22">
-        <v>45.03</v>
+        <v>45.69</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>23.8</v>
       </c>
       <c r="M22">
-        <v>921.61</v>
+        <v>925.05</v>
       </c>
       <c r="N22">
-        <v>997.2</v>
+        <v>998.75</v>
       </c>
       <c r="O22">
         <v>0.03</v>
@@ -9898,39 +9898,39 @@
         <v>0.2</v>
       </c>
       <c r="R22">
-        <v>43.56</v>
+        <v>44.13</v>
       </c>
       <c r="S22">
-        <v>34.880000000000003</v>
+        <v>34.99</v>
       </c>
       <c r="T22">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45862.708333333336</v>
+        <v>45865.708333333336</v>
       </c>
       <c r="B23">
-        <v>41.87</v>
+        <v>42.47</v>
       </c>
       <c r="C23">
-        <v>41.84</v>
+        <v>42.37</v>
       </c>
       <c r="D23">
-        <v>44.05</v>
+        <v>44.57</v>
       </c>
       <c r="E23">
-        <v>6.05</v>
+        <v>3.75</v>
       </c>
       <c r="F23">
-        <v>291.42</v>
+        <v>320.97000000000003</v>
       </c>
       <c r="G23">
-        <v>18.12</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H23">
-        <v>41.97</v>
+        <v>42.78</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -9942,13 +9942,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.58</v>
+        <v>31.91</v>
       </c>
       <c r="M23">
-        <v>423.47</v>
+        <v>434.28</v>
       </c>
       <c r="N23">
-        <v>997.23</v>
+        <v>998.79</v>
       </c>
       <c r="O23">
         <v>0.03</v>
@@ -9960,39 +9960,39 @@
         <v>0.2</v>
       </c>
       <c r="R23">
-        <v>43.58</v>
+        <v>44.21</v>
       </c>
       <c r="S23">
-        <v>34.96</v>
+        <v>35.08</v>
       </c>
       <c r="T23">
-        <v>32.9</v>
+        <v>33.090000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45862.833333333336</v>
+        <v>45865.833333333336</v>
       </c>
       <c r="B24">
-        <v>37.409999999999997</v>
+        <v>37.76</v>
       </c>
       <c r="C24">
-        <v>37.450000000000003</v>
+        <v>37.89</v>
       </c>
       <c r="D24">
-        <v>44.05</v>
+        <v>44.51</v>
       </c>
       <c r="E24">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="F24">
-        <v>288.98</v>
+        <v>87.18</v>
       </c>
       <c r="G24">
-        <v>23.45</v>
+        <v>21.47</v>
       </c>
       <c r="H24">
-        <v>37.06</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -10004,13 +10004,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>34.76</v>
+        <v>26.93</v>
       </c>
       <c r="M24">
-        <v>217.28</v>
+        <v>222.68</v>
       </c>
       <c r="N24">
-        <v>998.78</v>
+        <v>1000.53</v>
       </c>
       <c r="O24">
         <v>0.03</v>
@@ -10022,39 +10022,39 @@
         <v>0.2</v>
       </c>
       <c r="R24">
-        <v>40.79</v>
+        <v>41.28</v>
       </c>
       <c r="S24">
-        <v>34.979999999999997</v>
+        <v>35.11</v>
       </c>
       <c r="T24">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45862.958333333336</v>
+        <v>45865.958333333336</v>
       </c>
       <c r="B25">
-        <v>34.58</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C25">
-        <v>34.58</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="D25">
-        <v>37.369999999999997</v>
+        <v>37.85</v>
       </c>
       <c r="E25">
-        <v>3.92</v>
+        <v>2.6</v>
       </c>
       <c r="F25">
-        <v>326.60000000000002</v>
+        <v>107.59</v>
       </c>
       <c r="G25">
-        <v>24.41</v>
+        <v>25.4</v>
       </c>
       <c r="H25">
-        <v>33.72</v>
+        <v>33.5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -10066,13 +10066,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>28.09</v>
+        <v>14.72</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>998.76</v>
+        <v>1000.76</v>
       </c>
       <c r="O25">
         <v>0.03</v>
@@ -10084,39 +10084,39 @@
         <v>0.2</v>
       </c>
       <c r="R25">
-        <v>38.19</v>
+        <v>38.35</v>
       </c>
       <c r="S25">
-        <v>34.97</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="T25">
-        <v>32.909999999999997</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45863.083333333336</v>
+        <v>45866.083333333336</v>
       </c>
       <c r="B26">
-        <v>32.24</v>
+        <v>33.03</v>
       </c>
       <c r="C26">
-        <v>32.24</v>
+        <v>32.32</v>
       </c>
       <c r="D26">
-        <v>37.369999999999997</v>
+        <v>37.79</v>
       </c>
       <c r="E26">
-        <v>3.92</v>
+        <v>2.76</v>
       </c>
       <c r="F26">
-        <v>315.64999999999998</v>
+        <v>262.10000000000002</v>
       </c>
       <c r="G26">
-        <v>25.44</v>
+        <v>24.78</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>31.98</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -10128,13 +10128,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>28.45</v>
+        <v>3.45</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>997.9</v>
+        <v>999.94</v>
       </c>
       <c r="O26">
         <v>0.03</v>
@@ -10146,39 +10146,39 @@
         <v>0.2</v>
       </c>
       <c r="R26">
-        <v>35.92</v>
+        <v>35.81</v>
       </c>
       <c r="S26">
-        <v>34.97</v>
+        <v>35.11</v>
       </c>
       <c r="T26">
-        <v>32.909999999999997</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45863.208333333336</v>
+        <v>45866.208333333336</v>
       </c>
       <c r="B27">
-        <v>30.64</v>
+        <v>31.28</v>
       </c>
       <c r="C27">
-        <v>30.24</v>
+        <v>30.73</v>
       </c>
       <c r="D27">
-        <v>32.21</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="E27">
-        <v>3.81</v>
+        <v>3.12</v>
       </c>
       <c r="F27">
-        <v>300.52999999999997</v>
+        <v>289.98</v>
       </c>
       <c r="G27">
-        <v>26.82</v>
+        <v>25.59</v>
       </c>
       <c r="H27">
-        <v>29.49</v>
+        <v>30.3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>19.68</v>
+        <v>6.61</v>
       </c>
       <c r="M27">
-        <v>5.45</v>
+        <v>5.07</v>
       </c>
       <c r="N27">
-        <v>999.14</v>
+        <v>1001.16</v>
       </c>
       <c r="O27">
         <v>0.03</v>
@@ -10208,39 +10208,39 @@
         <v>0.2</v>
       </c>
       <c r="R27">
-        <v>33.86</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="S27">
-        <v>34.94</v>
+        <v>35.07</v>
       </c>
       <c r="T27">
-        <v>32.97</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45863.333333333336</v>
+        <v>45866.333333333336</v>
       </c>
       <c r="B28">
-        <v>38.18</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="C28">
-        <v>30.31</v>
+        <v>30.7</v>
       </c>
       <c r="D28">
-        <v>38.17</v>
+        <v>38.57</v>
       </c>
       <c r="E28">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="F28">
-        <v>319.07</v>
+        <v>306.75</v>
       </c>
       <c r="G28">
-        <v>20.78</v>
+        <v>20.72</v>
       </c>
       <c r="H28">
-        <v>38.14</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10252,13 +10252,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>12.9</v>
+        <v>11.66</v>
       </c>
       <c r="M28">
-        <v>190.37</v>
+        <v>189.41</v>
       </c>
       <c r="N28">
-        <v>999.44</v>
+        <v>1001.25</v>
       </c>
       <c r="O28">
         <v>0.03</v>
@@ -10270,39 +10270,39 @@
         <v>0.2</v>
       </c>
       <c r="R28">
-        <v>35.03</v>
+        <v>35.1</v>
       </c>
       <c r="S28">
-        <v>34.85</v>
+        <v>34.97</v>
       </c>
       <c r="T28">
-        <v>32.97</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45863.458333333336</v>
+        <v>45866.458333333336</v>
       </c>
       <c r="B29">
-        <v>43.26</v>
+        <v>43.77</v>
       </c>
       <c r="C29">
-        <v>38.21</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="D29">
-        <v>43.19</v>
+        <v>43.77</v>
       </c>
       <c r="E29">
-        <v>3.67</v>
+        <v>4.99</v>
       </c>
       <c r="F29">
-        <v>60.71</v>
+        <v>115.59</v>
       </c>
       <c r="G29">
-        <v>17.309999999999999</v>
+        <v>17.66</v>
       </c>
       <c r="H29">
-        <v>44.3</v>
+        <v>45.13</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10314,13 +10314,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>25.05</v>
+        <v>27.61</v>
       </c>
       <c r="M29">
-        <v>905.46</v>
+        <v>902.42</v>
       </c>
       <c r="N29">
-        <v>997.89</v>
+        <v>999.99</v>
       </c>
       <c r="O29">
         <v>0.03</v>
@@ -10332,39 +10332,39 @@
         <v>0.2</v>
       </c>
       <c r="R29">
-        <v>39.950000000000003</v>
+        <v>39.99</v>
       </c>
       <c r="S29">
-        <v>34.85</v>
+        <v>34.97</v>
       </c>
       <c r="T29">
-        <v>32.97</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45863.583333333336</v>
+        <v>45866.583333333336</v>
       </c>
       <c r="B30">
-        <v>44.33</v>
+        <v>44.99</v>
       </c>
       <c r="C30">
-        <v>38.24</v>
+        <v>38.61</v>
       </c>
       <c r="D30">
-        <v>44.58</v>
+        <v>45.14</v>
       </c>
       <c r="E30">
-        <v>3.62</v>
+        <v>4.63</v>
       </c>
       <c r="F30">
-        <v>303.08999999999997</v>
+        <v>120.86</v>
       </c>
       <c r="G30">
-        <v>16.010000000000002</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="H30">
-        <v>45.34</v>
+        <v>46.66</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10376,13 +10376,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>13.58</v>
+        <v>46.89</v>
       </c>
       <c r="M30">
-        <v>920.63</v>
+        <v>911.84</v>
       </c>
       <c r="N30">
-        <v>995.96</v>
+        <v>998.03</v>
       </c>
       <c r="O30">
         <v>0.03</v>
@@ -10394,57 +10394,57 @@
         <v>0.2</v>
       </c>
       <c r="R30">
-        <v>44.25</v>
+        <v>44.14</v>
       </c>
       <c r="S30">
-        <v>34.9</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="T30">
-        <v>32.97</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45863.708333333336</v>
+        <v>45866.708333333336</v>
       </c>
       <c r="B31">
-        <v>42.3</v>
+        <v>42.66</v>
       </c>
       <c r="C31">
-        <v>42.26</v>
+        <v>42.6</v>
       </c>
       <c r="D31">
-        <v>44.62</v>
+        <v>45.03</v>
       </c>
       <c r="E31">
-        <v>3.59</v>
+        <v>4.51</v>
       </c>
       <c r="F31">
-        <v>302.77999999999997</v>
+        <v>135.27000000000001</v>
       </c>
       <c r="G31">
-        <v>17.11</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="H31">
-        <v>42.26</v>
+        <v>43.17</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>13.15</v>
+        <v>72.47</v>
       </c>
       <c r="M31">
-        <v>429.71</v>
+        <v>389.91</v>
       </c>
       <c r="N31">
-        <v>996.28</v>
+        <v>998.19</v>
       </c>
       <c r="O31">
         <v>0.03</v>
@@ -10456,57 +10456,57 @@
         <v>0.2</v>
       </c>
       <c r="R31">
-        <v>44.46</v>
+        <v>44.16</v>
       </c>
       <c r="S31">
-        <v>35</v>
+        <v>35.14</v>
       </c>
       <c r="T31">
-        <v>32.97</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45863.833333333336</v>
+        <v>45866.833333333336</v>
       </c>
       <c r="B32">
-        <v>37.950000000000003</v>
+        <v>38.43</v>
       </c>
       <c r="C32">
-        <v>37.86</v>
+        <v>38.47</v>
       </c>
       <c r="D32">
-        <v>44.6</v>
+        <v>45.07</v>
       </c>
       <c r="E32">
-        <v>4.22</v>
+        <v>3.69</v>
       </c>
       <c r="F32">
-        <v>107.15</v>
+        <v>124.86</v>
       </c>
       <c r="G32">
-        <v>20.95</v>
+        <v>21.49</v>
       </c>
       <c r="H32">
-        <v>36.99</v>
+        <v>38.04</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>8.8800000000000008</v>
+        <v>75.5</v>
       </c>
       <c r="M32">
-        <v>220.54</v>
+        <v>200.04</v>
       </c>
       <c r="N32">
-        <v>998.27</v>
+        <v>1000.49</v>
       </c>
       <c r="O32">
         <v>0.03</v>
@@ -10518,57 +10518,57 @@
         <v>0.2</v>
       </c>
       <c r="R32">
-        <v>41.54</v>
+        <v>41.46</v>
       </c>
       <c r="S32">
-        <v>35.11</v>
+        <v>35.17</v>
       </c>
       <c r="T32">
-        <v>33</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45863.958333333336</v>
+        <v>45866.958333333336</v>
       </c>
       <c r="B33">
-        <v>34.96</v>
+        <v>34.53</v>
       </c>
       <c r="C33">
-        <v>35.06</v>
+        <v>34.5</v>
       </c>
       <c r="D33">
-        <v>37.93</v>
+        <v>38.4</v>
       </c>
       <c r="E33">
-        <v>3.79</v>
+        <v>2.92</v>
       </c>
       <c r="F33">
-        <v>125.54</v>
+        <v>127.34</v>
       </c>
       <c r="G33">
-        <v>23.67</v>
+        <v>24.32</v>
       </c>
       <c r="H33">
-        <v>33.81</v>
+        <v>33.78</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.79</v>
+        <v>28.94</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>998.51</v>
+        <v>1000.89</v>
       </c>
       <c r="O33">
         <v>0.03</v>
@@ -10580,57 +10580,57 @@
         <v>0.2</v>
       </c>
       <c r="R33">
-        <v>38.81</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="S33">
-        <v>35.1</v>
+        <v>35.17</v>
       </c>
       <c r="T33">
-        <v>33</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45864.083333333336</v>
+        <v>45867.083333333336</v>
       </c>
       <c r="B34">
-        <v>32.409999999999997</v>
+        <v>32.49</v>
       </c>
       <c r="C34">
-        <v>32.39</v>
+        <v>32.17</v>
       </c>
       <c r="D34">
-        <v>37.89</v>
+        <v>38.35</v>
       </c>
       <c r="E34">
-        <v>2.84</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F34">
-        <v>136</v>
+        <v>152.47</v>
       </c>
       <c r="G34">
-        <v>26.28</v>
+        <v>27.27</v>
       </c>
       <c r="H34">
-        <v>31.15</v>
+        <v>31.71</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.41</v>
+        <v>21.8</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>998.03</v>
+        <v>1000.27</v>
       </c>
       <c r="O34">
         <v>0.03</v>
@@ -10642,57 +10642,57 @@
         <v>0.2</v>
       </c>
       <c r="R34">
-        <v>36.31</v>
+        <v>36.33</v>
       </c>
       <c r="S34">
-        <v>35.1</v>
+        <v>35.17</v>
       </c>
       <c r="T34">
-        <v>33</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45864.208333333336</v>
+        <v>45867.208333333336</v>
       </c>
       <c r="B35">
-        <v>31.12</v>
+        <v>31.74</v>
       </c>
       <c r="C35">
-        <v>30.39</v>
+        <v>30.69</v>
       </c>
       <c r="D35">
-        <v>32.53</v>
+        <v>33.18</v>
       </c>
       <c r="E35">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="F35">
-        <v>323.2</v>
+        <v>287.48</v>
       </c>
       <c r="G35">
-        <v>26.93</v>
+        <v>29.12</v>
       </c>
       <c r="H35">
-        <v>29.85</v>
+        <v>31</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.56999999999999995</v>
+        <v>25.58</v>
       </c>
       <c r="M35">
-        <v>5.32</v>
+        <v>4.87</v>
       </c>
       <c r="N35">
-        <v>999.6</v>
+        <v>1001.8</v>
       </c>
       <c r="O35">
         <v>0.03</v>
@@ -10704,57 +10704,57 @@
         <v>0.2</v>
       </c>
       <c r="R35">
-        <v>34.21</v>
+        <v>34.11</v>
       </c>
       <c r="S35">
-        <v>35.08</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="T35">
-        <v>33</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45864.333333333336</v>
+        <v>45867.333333333336</v>
       </c>
       <c r="B36">
+        <v>39.18</v>
+      </c>
+      <c r="C36">
+        <v>30.71</v>
+      </c>
+      <c r="D36">
         <v>39.03</v>
       </c>
-      <c r="C36">
-        <v>30.43</v>
-      </c>
-      <c r="D36">
-        <v>39</v>
-      </c>
       <c r="E36">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="F36">
-        <v>113.28</v>
+        <v>115.63</v>
       </c>
       <c r="G36">
-        <v>18.78</v>
+        <v>22.79</v>
       </c>
       <c r="H36">
-        <v>38.39</v>
+        <v>39.96</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.14000000000000001</v>
+        <v>27.09</v>
       </c>
       <c r="M36">
-        <v>191.66</v>
+        <v>183.43</v>
       </c>
       <c r="N36">
-        <v>1000.02</v>
+        <v>1002.39</v>
       </c>
       <c r="O36">
         <v>0.03</v>
@@ -10766,57 +10766,57 @@
         <v>0.2</v>
       </c>
       <c r="R36">
-        <v>35.46</v>
+        <v>35.44</v>
       </c>
       <c r="S36">
-        <v>35.04</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="T36">
-        <v>33</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45864.458333333336</v>
+        <v>45867.458333333336</v>
       </c>
       <c r="B37">
+        <v>44.14</v>
+      </c>
+      <c r="C37">
+        <v>39.15</v>
+      </c>
+      <c r="D37">
         <v>44.16</v>
-      </c>
-      <c r="C37">
-        <v>39.1</v>
-      </c>
-      <c r="D37">
-        <v>44.15</v>
       </c>
       <c r="E37">
         <v>5.41</v>
       </c>
       <c r="F37">
-        <v>119.1</v>
+        <v>145.68</v>
       </c>
       <c r="G37">
-        <v>16.14</v>
+        <v>17.88</v>
       </c>
       <c r="H37">
-        <v>44.54</v>
+        <v>45.41</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.47</v>
+        <v>23.02</v>
       </c>
       <c r="M37">
-        <v>911.06</v>
+        <v>897.03</v>
       </c>
       <c r="N37">
-        <v>999.03</v>
+        <v>1001.27</v>
       </c>
       <c r="O37">
         <v>0.03</v>
@@ -10828,57 +10828,57 @@
         <v>0.2</v>
       </c>
       <c r="R37">
-        <v>40.26</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="S37">
         <v>35.04</v>
       </c>
       <c r="T37">
-        <v>33</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45864.583333333336</v>
+        <v>45867.583333333336</v>
       </c>
       <c r="B38">
-        <v>44.93</v>
+        <v>44.94</v>
       </c>
       <c r="C38">
-        <v>39.119999999999997</v>
+        <v>39.19</v>
       </c>
       <c r="D38">
-        <v>45.27</v>
+        <v>45.25</v>
       </c>
       <c r="E38">
-        <v>5.35</v>
+        <v>5.53</v>
       </c>
       <c r="F38">
-        <v>109.6</v>
+        <v>148.53</v>
       </c>
       <c r="G38">
-        <v>15.96</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="H38">
-        <v>45.99</v>
+        <v>46.72</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1.1599999999999999</v>
+        <v>25.21</v>
       </c>
       <c r="M38">
-        <v>924.15</v>
+        <v>909.75</v>
       </c>
       <c r="N38">
-        <v>997.46</v>
+        <v>999.75</v>
       </c>
       <c r="O38">
         <v>0.03</v>
@@ -10890,57 +10890,57 @@
         <v>0.2</v>
       </c>
       <c r="R38">
-        <v>44.17</v>
+        <v>44.05</v>
       </c>
       <c r="S38">
-        <v>35.06</v>
+        <v>35.14</v>
       </c>
       <c r="T38">
-        <v>33</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45864.708333333336</v>
+        <v>45867.708333333336</v>
       </c>
       <c r="B39">
-        <v>42.66</v>
+        <v>42.85</v>
       </c>
       <c r="C39">
-        <v>42.63</v>
+        <v>42.82</v>
       </c>
       <c r="D39">
-        <v>45.13</v>
+        <v>45.02</v>
       </c>
       <c r="E39">
-        <v>4.6900000000000004</v>
+        <v>4.17</v>
       </c>
       <c r="F39">
-        <v>108.04</v>
+        <v>119.44</v>
       </c>
       <c r="G39">
-        <v>16.760000000000002</v>
+        <v>18.86</v>
       </c>
       <c r="H39">
-        <v>42.63</v>
+        <v>43.83</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>2.5</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="M39">
-        <v>434.61</v>
+        <v>423.24</v>
       </c>
       <c r="N39">
-        <v>997.97</v>
+        <v>1000</v>
       </c>
       <c r="O39">
         <v>0.03</v>
@@ -10952,57 +10952,57 @@
         <v>0.2</v>
       </c>
       <c r="R39">
-        <v>44.39</v>
+        <v>44.32</v>
       </c>
       <c r="S39">
-        <v>35.03</v>
+        <v>35.15</v>
       </c>
       <c r="T39">
-        <v>33</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45864.833333333336</v>
+        <v>45867.833333333336</v>
       </c>
       <c r="B40">
-        <v>38.35</v>
+        <v>38.28</v>
       </c>
       <c r="C40">
-        <v>38.409999999999997</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="D40">
-        <v>45.09</v>
+        <v>45.06</v>
       </c>
       <c r="E40">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="F40">
-        <v>106.89</v>
+        <v>125.37</v>
       </c>
       <c r="G40">
-        <v>20.5</v>
+        <v>25.16</v>
       </c>
       <c r="H40">
-        <v>37.479999999999997</v>
+        <v>39.18</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1.48</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="M40">
-        <v>222.88</v>
+        <v>216.67</v>
       </c>
       <c r="N40">
-        <v>1000.08</v>
+        <v>1002.22</v>
       </c>
       <c r="O40">
         <v>0.03</v>
@@ -11014,57 +11014,57 @@
         <v>0.2</v>
       </c>
       <c r="R40">
-        <v>41.54</v>
+        <v>41.63</v>
       </c>
       <c r="S40">
-        <v>35.1</v>
+        <v>35.25</v>
       </c>
       <c r="T40">
-        <v>33.07</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45864.958333333336</v>
+        <v>45867.958333333336</v>
       </c>
       <c r="B41">
-        <v>34.99</v>
+        <v>35.08</v>
       </c>
       <c r="C41">
-        <v>34.880000000000003</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="D41">
-        <v>38.42</v>
+        <v>38.28</v>
       </c>
       <c r="E41">
-        <v>3.77</v>
+        <v>2.81</v>
       </c>
       <c r="F41">
-        <v>143.94999999999999</v>
+        <v>144.54</v>
       </c>
       <c r="G41">
-        <v>22.75</v>
+        <v>26.69</v>
       </c>
       <c r="H41">
-        <v>33.94</v>
+        <v>35.01</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>8.32</v>
+        <v>35.53</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1000.32</v>
+        <v>1002.05</v>
       </c>
       <c r="O41">
         <v>0.03</v>
@@ -11076,57 +11076,57 @@
         <v>0.2</v>
       </c>
       <c r="R41">
-        <v>38.83</v>
+        <v>38.9</v>
       </c>
       <c r="S41">
-        <v>35.130000000000003</v>
+        <v>35.31</v>
       </c>
       <c r="T41">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45865.083333333336</v>
+        <v>45868.083333333336</v>
       </c>
       <c r="B42">
-        <v>32.659999999999997</v>
+        <v>32.71</v>
       </c>
       <c r="C42">
-        <v>32.26</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="D42">
-        <v>38.4</v>
+        <v>38.32</v>
       </c>
       <c r="E42">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="F42">
-        <v>124.07</v>
+        <v>121.25</v>
       </c>
       <c r="G42">
-        <v>23.81</v>
+        <v>28.57</v>
       </c>
       <c r="H42">
-        <v>31.31</v>
+        <v>32.31</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>5.21</v>
+        <v>31.46</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>999.65</v>
+        <v>1001.49</v>
       </c>
       <c r="O42">
         <v>0.03</v>
@@ -11138,57 +11138,57 @@
         <v>0.2</v>
       </c>
       <c r="R42">
-        <v>36.31</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="S42">
-        <v>35.090000000000003</v>
+        <v>35.24</v>
       </c>
       <c r="T42">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45865.208333333336</v>
+        <v>45868.208333333336</v>
       </c>
       <c r="B43">
-        <v>31.39</v>
+        <v>31.9</v>
       </c>
       <c r="C43">
-        <v>30.6</v>
+        <v>31.33</v>
       </c>
       <c r="D43">
-        <v>32.82</v>
+        <v>32.99</v>
       </c>
       <c r="E43">
-        <v>3.45</v>
+        <v>3.96</v>
       </c>
       <c r="F43">
-        <v>294.08999999999997</v>
+        <v>299.70999999999998</v>
       </c>
       <c r="G43">
-        <v>25.31</v>
+        <v>28.98</v>
       </c>
       <c r="H43">
-        <v>30.11</v>
+        <v>31.12</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>7.59</v>
+        <v>14.39</v>
       </c>
       <c r="M43">
-        <v>5.21</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="N43">
-        <v>1001.27</v>
+        <v>1002.9</v>
       </c>
       <c r="O43">
         <v>0.03</v>
@@ -11200,57 +11200,57 @@
         <v>0.2</v>
       </c>
       <c r="R43">
-        <v>34.33</v>
+        <v>34.57</v>
       </c>
       <c r="S43">
-        <v>35.03</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="T43">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45865.333333333336</v>
+        <v>45868.333333333336</v>
       </c>
       <c r="B44">
-        <v>39.119999999999997</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="C44">
-        <v>30.65</v>
+        <v>31.36</v>
       </c>
       <c r="D44">
-        <v>39.1</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="E44">
-        <v>5.27</v>
+        <v>5.73</v>
       </c>
       <c r="F44">
-        <v>132.19</v>
+        <v>140.88999999999999</v>
       </c>
       <c r="G44">
-        <v>19.809999999999999</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="H44">
-        <v>39.11</v>
+        <v>39.67</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>14.09</v>
+        <v>9.82</v>
       </c>
       <c r="M44">
-        <v>189.29</v>
+        <v>186.85</v>
       </c>
       <c r="N44">
-        <v>1001.76</v>
+        <v>1003.16</v>
       </c>
       <c r="O44">
         <v>0.03</v>
@@ -11262,57 +11262,57 @@
         <v>0.2</v>
       </c>
       <c r="R44">
-        <v>35.39</v>
+        <v>35.72</v>
       </c>
       <c r="S44">
-        <v>35</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="T44">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45865.458333333336</v>
+        <v>45868.458333333336</v>
       </c>
       <c r="B45">
-        <v>44.06</v>
+        <v>44.36</v>
       </c>
       <c r="C45">
-        <v>39.119999999999997</v>
+        <v>39.49</v>
       </c>
       <c r="D45">
-        <v>44.06</v>
+        <v>44.35</v>
       </c>
       <c r="E45">
-        <v>6.45</v>
+        <v>5.72</v>
       </c>
       <c r="F45">
-        <v>119.47</v>
+        <v>125.22</v>
       </c>
       <c r="G45">
-        <v>17.48</v>
+        <v>17.2</v>
       </c>
       <c r="H45">
-        <v>45.38</v>
+        <v>45.75</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>23.95</v>
+        <v>9.06</v>
       </c>
       <c r="M45">
-        <v>904.17</v>
+        <v>901.97</v>
       </c>
       <c r="N45">
-        <v>1000.58</v>
+        <v>1001.95</v>
       </c>
       <c r="O45">
         <v>0.03</v>
@@ -11324,57 +11324,57 @@
         <v>0.2</v>
       </c>
       <c r="R45">
-        <v>39.85</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="S45">
-        <v>34.979999999999997</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="T45">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45865.583333333336</v>
+        <v>45868.583333333336</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>45.26</v>
       </c>
       <c r="C46">
-        <v>39.17</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="D46">
-        <v>45.23</v>
+        <v>45.55</v>
       </c>
       <c r="E46">
-        <v>5.66</v>
+        <v>6.02</v>
       </c>
       <c r="F46">
-        <v>119.48</v>
+        <v>145.53</v>
       </c>
       <c r="G46">
-        <v>17.59</v>
+        <v>17.22</v>
       </c>
       <c r="H46">
-        <v>47.06</v>
+        <v>47.33</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>26.06</v>
+        <v>5.43</v>
       </c>
       <c r="M46">
-        <v>916.57</v>
+        <v>916.08</v>
       </c>
       <c r="N46">
-        <v>998.93</v>
+        <v>1000.05</v>
       </c>
       <c r="O46">
         <v>0.03</v>
@@ -11386,57 +11386,57 @@
         <v>0.2</v>
       </c>
       <c r="R46">
-        <v>43.68</v>
+        <v>43.99</v>
       </c>
       <c r="S46">
-        <v>35</v>
+        <v>35.28</v>
       </c>
       <c r="T46">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45865.708333333336</v>
+        <v>45868.708333333336</v>
       </c>
       <c r="B47">
-        <v>42.72</v>
+        <v>43.15</v>
       </c>
       <c r="C47">
-        <v>42.74</v>
+        <v>43.06</v>
       </c>
       <c r="D47">
-        <v>45.16</v>
+        <v>45.41</v>
       </c>
       <c r="E47">
-        <v>4.8099999999999996</v>
+        <v>5.43</v>
       </c>
       <c r="F47">
-        <v>134.04</v>
+        <v>139.99</v>
       </c>
       <c r="G47">
-        <v>18.72</v>
+        <v>18.18</v>
       </c>
       <c r="H47">
-        <v>43.79</v>
+        <v>44.36</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>45.96</v>
+        <v>22.13</v>
       </c>
       <c r="M47">
-        <v>425.66</v>
+        <v>423.45</v>
       </c>
       <c r="N47">
-        <v>999.07</v>
+        <v>1000.12</v>
       </c>
       <c r="O47">
         <v>0.03</v>
@@ -11448,57 +11448,57 @@
         <v>0.2</v>
       </c>
       <c r="R47">
-        <v>43.9</v>
+        <v>44.18</v>
       </c>
       <c r="S47">
-        <v>35.15</v>
+        <v>35.36</v>
       </c>
       <c r="T47">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45865.833333333336</v>
+        <v>45868.833333333336</v>
       </c>
       <c r="B48">
-        <v>38.26</v>
+        <v>38.85</v>
       </c>
       <c r="C48">
-        <v>38.25</v>
+        <v>38.81</v>
       </c>
       <c r="D48">
-        <v>45.13</v>
+        <v>45.46</v>
       </c>
       <c r="E48">
-        <v>3.59</v>
+        <v>4.71</v>
       </c>
       <c r="F48">
-        <v>125.75</v>
+        <v>147.94</v>
       </c>
       <c r="G48">
-        <v>23.38</v>
+        <v>21.63</v>
       </c>
       <c r="H48">
-        <v>38.43</v>
+        <v>39.01</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>45.76</v>
+        <v>36.08</v>
       </c>
       <c r="M48">
-        <v>218.15</v>
+        <v>216.57</v>
       </c>
       <c r="N48">
-        <v>1001.04</v>
+        <v>1001.93</v>
       </c>
       <c r="O48">
         <v>0.03</v>
@@ -11510,57 +11510,57 @@
         <v>0.2</v>
       </c>
       <c r="R48">
-        <v>41.27</v>
+        <v>41.58</v>
       </c>
       <c r="S48">
-        <v>35.17</v>
+        <v>35.4</v>
       </c>
       <c r="T48">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45865.958333333336</v>
+        <v>45868.958333333336</v>
       </c>
       <c r="B49">
-        <v>35.119999999999997</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="C49">
-        <v>35.119999999999997</v>
+        <v>35.36</v>
       </c>
       <c r="D49">
-        <v>38.159999999999997</v>
+        <v>38.82</v>
       </c>
       <c r="E49">
-        <v>2.88</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F49">
-        <v>132.25</v>
+        <v>154.97</v>
       </c>
       <c r="G49">
-        <v>25.87</v>
+        <v>25.37</v>
       </c>
       <c r="H49">
-        <v>34.65</v>
+        <v>35.39</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>20.7</v>
+        <v>43.72</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1001.07</v>
+        <v>1001.67</v>
       </c>
       <c r="O49">
         <v>0.03</v>
@@ -11572,57 +11572,57 @@
         <v>0.2</v>
       </c>
       <c r="R49">
-        <v>38.68</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="S49">
-        <v>35.17</v>
+        <v>35.4</v>
       </c>
       <c r="T49">
-        <v>33.07</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45866.083333333336</v>
+        <v>45869.083333333336</v>
       </c>
       <c r="B50">
-        <v>32.700000000000003</v>
+        <v>32.56</v>
       </c>
       <c r="C50">
-        <v>32.44</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="D50">
-        <v>38.119999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E50">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="F50">
-        <v>131.51</v>
+        <v>325.94</v>
       </c>
       <c r="G50">
-        <v>27.63</v>
+        <v>28.29</v>
       </c>
       <c r="H50">
-        <v>31.91</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>4.03</v>
+        <v>52.6</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1000.36</v>
+        <v>1001.01</v>
       </c>
       <c r="O50">
         <v>0.03</v>
@@ -11634,57 +11634,57 @@
         <v>0.2</v>
       </c>
       <c r="R50">
-        <v>36.26</v>
+        <v>36.74</v>
       </c>
       <c r="S50">
-        <v>35.22</v>
+        <v>35.4</v>
       </c>
       <c r="T50">
-        <v>33.090000000000003</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45866.208333333336</v>
+        <v>45869.208333333336</v>
       </c>
       <c r="B51">
-        <v>31.69</v>
+        <v>31.84</v>
       </c>
       <c r="C51">
-        <v>30.9</v>
+        <v>31.05</v>
       </c>
       <c r="D51">
-        <v>33.19</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="E51">
-        <v>3.11</v>
+        <v>3.7</v>
       </c>
       <c r="F51">
-        <v>305.91000000000003</v>
+        <v>318.54000000000002</v>
       </c>
       <c r="G51">
-        <v>27.85</v>
+        <v>28.88</v>
       </c>
       <c r="H51">
-        <v>30.8</v>
+        <v>31.21</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>4.6100000000000003</v>
+        <v>44.53</v>
       </c>
       <c r="M51">
-        <v>5.0199999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="N51">
-        <v>1001.73</v>
+        <v>1002.43</v>
       </c>
       <c r="O51">
         <v>0.03</v>
@@ -11696,57 +11696,57 @@
         <v>0.2</v>
       </c>
       <c r="R51">
-        <v>34.270000000000003</v>
+        <v>34.71</v>
       </c>
       <c r="S51">
-        <v>35.21</v>
+        <v>35.33</v>
       </c>
       <c r="T51">
-        <v>33.14</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45866.333333333336</v>
+        <v>45869.333333333336</v>
       </c>
       <c r="B52">
-        <v>39.799999999999997</v>
+        <v>39.44</v>
       </c>
       <c r="C52">
-        <v>30.87</v>
+        <v>31.06</v>
       </c>
       <c r="D52">
-        <v>39.76</v>
+        <v>39.42</v>
       </c>
       <c r="E52">
-        <v>4.0999999999999996</v>
+        <v>4.58</v>
       </c>
       <c r="F52">
-        <v>128.6</v>
+        <v>103.72</v>
       </c>
       <c r="G52">
-        <v>21.21</v>
+        <v>21.77</v>
       </c>
       <c r="H52">
-        <v>40.44</v>
+        <v>40.43</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>5.6</v>
+        <v>50.39</v>
       </c>
       <c r="M52">
-        <v>188.62</v>
+        <v>182.54</v>
       </c>
       <c r="N52">
-        <v>1001.53</v>
+        <v>1002.99</v>
       </c>
       <c r="O52">
         <v>0.03</v>
@@ -11758,57 +11758,57 @@
         <v>0.2</v>
       </c>
       <c r="R52">
-        <v>35.549999999999997</v>
+        <v>35.86</v>
       </c>
       <c r="S52">
-        <v>35.130000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="T52">
-        <v>33.14</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45866.458333333336</v>
+        <v>45869.458333333336</v>
       </c>
       <c r="B53">
-        <v>44.43</v>
+        <v>43.66</v>
       </c>
       <c r="C53">
-        <v>39.85</v>
+        <v>39.47</v>
       </c>
       <c r="D53">
-        <v>44.46</v>
+        <v>43.66</v>
       </c>
       <c r="E53">
-        <v>5.13</v>
+        <v>5.34</v>
       </c>
       <c r="F53">
-        <v>128.05000000000001</v>
+        <v>146.26</v>
       </c>
       <c r="G53">
-        <v>18.489999999999998</v>
+        <v>19.45</v>
       </c>
       <c r="H53">
-        <v>46.66</v>
+        <v>46.43</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>19.899999999999999</v>
+        <v>51.86</v>
       </c>
       <c r="M53">
-        <v>902.19</v>
+        <v>890.71</v>
       </c>
       <c r="N53">
-        <v>1000.38</v>
+        <v>1001.8</v>
       </c>
       <c r="O53">
         <v>0.03</v>
@@ -11820,57 +11820,57 @@
         <v>0.2</v>
       </c>
       <c r="R53">
-        <v>40.17</v>
+        <v>40.43</v>
       </c>
       <c r="S53">
-        <v>35.130000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="T53">
-        <v>33.15</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45866.583333333336</v>
+        <v>45869.583333333336</v>
       </c>
       <c r="B54">
-        <v>45.46</v>
+        <v>44.72</v>
       </c>
       <c r="C54">
-        <v>39.82</v>
+        <v>39.46</v>
       </c>
       <c r="D54">
-        <v>45.66</v>
+        <v>44.87</v>
       </c>
       <c r="E54">
-        <v>4.96</v>
+        <v>5.72</v>
       </c>
       <c r="F54">
-        <v>153.96</v>
+        <v>98.56</v>
       </c>
       <c r="G54">
-        <v>17.809999999999999</v>
+        <v>18.43</v>
       </c>
       <c r="H54">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>26.64</v>
+        <v>45.86</v>
       </c>
       <c r="M54">
-        <v>914.59</v>
+        <v>904.3</v>
       </c>
       <c r="N54">
-        <v>998.31</v>
+        <v>999.82</v>
       </c>
       <c r="O54">
         <v>0.03</v>
@@ -11882,57 +11882,57 @@
         <v>0.2</v>
       </c>
       <c r="R54">
-        <v>44.23</v>
+        <v>44.25</v>
       </c>
       <c r="S54">
-        <v>35.19</v>
+        <v>35.33</v>
       </c>
       <c r="T54">
-        <v>33.15</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45866.708333333336</v>
+        <v>45869.708333333336</v>
       </c>
       <c r="B55">
-        <v>43.11</v>
+        <v>42.4</v>
       </c>
       <c r="C55">
-        <v>43.08</v>
+        <v>42.36</v>
       </c>
       <c r="D55">
-        <v>45.52</v>
+        <v>44.79</v>
       </c>
       <c r="E55">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="F55">
-        <v>160.04</v>
+        <v>294.51</v>
       </c>
       <c r="G55">
-        <v>19.12</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="H55">
-        <v>44.76</v>
+        <v>44.22</v>
       </c>
       <c r="I55">
         <v>0.01</v>
       </c>
       <c r="J55">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>52.98</v>
+        <v>86.45</v>
       </c>
       <c r="M55">
-        <v>411.15</v>
+        <v>410.44</v>
       </c>
       <c r="N55">
-        <v>998.48</v>
+        <v>999.56</v>
       </c>
       <c r="O55">
         <v>0.03</v>
@@ -11944,42 +11944,42 @@
         <v>0.2</v>
       </c>
       <c r="R55">
-        <v>44.47</v>
+        <v>44.45</v>
       </c>
       <c r="S55">
-        <v>35.229999999999997</v>
+        <v>35.42</v>
       </c>
       <c r="T55">
-        <v>33.15</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45866.833333333336</v>
+        <v>45869.833333333336</v>
       </c>
       <c r="B56">
-        <v>39.049999999999997</v>
+        <v>38.74</v>
       </c>
       <c r="C56">
-        <v>39.090000000000003</v>
+        <v>38.71</v>
       </c>
       <c r="D56">
-        <v>45.56</v>
+        <v>44.79</v>
       </c>
       <c r="E56">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="F56">
-        <v>140.5</v>
+        <v>99.08</v>
       </c>
       <c r="G56">
-        <v>23.74</v>
+        <v>23.56</v>
       </c>
       <c r="H56">
-        <v>39.75</v>
+        <v>39.28</v>
       </c>
       <c r="I56">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0.03</v>
@@ -11988,13 +11988,13 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>43.29</v>
+        <v>66.63</v>
       </c>
       <c r="M56">
-        <v>210.56</v>
+        <v>209.54</v>
       </c>
       <c r="N56">
-        <v>1000.8</v>
+        <v>1001.63</v>
       </c>
       <c r="O56">
         <v>0.03</v>
@@ -12006,39 +12006,39 @@
         <v>0.2</v>
       </c>
       <c r="R56">
-        <v>41.94</v>
+        <v>41.87</v>
       </c>
       <c r="S56">
-        <v>35.31</v>
+        <v>35.44</v>
       </c>
       <c r="T56">
-        <v>33.17</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45866.958333333336</v>
+        <v>45869.958333333336</v>
       </c>
       <c r="B57">
-        <v>35.97</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="C57">
-        <v>35.75</v>
+        <v>34.83</v>
       </c>
       <c r="D57">
-        <v>39.229999999999997</v>
+        <v>38.68</v>
       </c>
       <c r="E57">
-        <v>3.68</v>
+        <v>3.62</v>
       </c>
       <c r="F57">
-        <v>160.65</v>
+        <v>118.72</v>
       </c>
       <c r="G57">
-        <v>24.59</v>
+        <v>25.88</v>
       </c>
       <c r="H57">
-        <v>35.81</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -12050,13 +12050,13 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>30.15</v>
+        <v>52.24</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1000.53</v>
+        <v>1001.45</v>
       </c>
       <c r="O57">
         <v>0.03</v>
@@ -12068,39 +12068,39 @@
         <v>0.2</v>
       </c>
       <c r="R57">
-        <v>39.450000000000003</v>
+        <v>39.24</v>
       </c>
       <c r="S57">
-        <v>35.33</v>
+        <v>35.5</v>
       </c>
       <c r="T57">
-        <v>33.17</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45867.083333333336</v>
+        <v>45870.083333333336</v>
       </c>
       <c r="B58">
-        <v>32.880000000000003</v>
+        <v>32.82</v>
       </c>
       <c r="C58">
-        <v>32.770000000000003</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="D58">
-        <v>39.25</v>
+        <v>38.69</v>
       </c>
       <c r="E58">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="F58">
-        <v>173.23</v>
+        <v>139.56</v>
       </c>
       <c r="G58">
-        <v>27.93</v>
+        <v>28.17</v>
       </c>
       <c r="H58">
-        <v>32.369999999999997</v>
+        <v>32.35</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12112,13 +12112,13 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>43.27</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>999.88</v>
+        <v>1001.06</v>
       </c>
       <c r="O58">
         <v>0.03</v>
@@ -12130,39 +12130,39 @@
         <v>0.2</v>
       </c>
       <c r="R58">
-        <v>37.1</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="S58">
-        <v>35.33</v>
+        <v>35.35</v>
       </c>
       <c r="T58">
-        <v>33.17</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45867.208333333336</v>
+        <v>45870.208333333336</v>
       </c>
       <c r="B59">
-        <v>32.49</v>
+        <v>31.72</v>
       </c>
       <c r="C59">
-        <v>31.23</v>
+        <v>30.69</v>
       </c>
       <c r="D59">
-        <v>33.72</v>
+        <v>32.79</v>
       </c>
       <c r="E59">
-        <v>2.02</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F59">
-        <v>267.70999999999998</v>
+        <v>142.9</v>
       </c>
       <c r="G59">
-        <v>28.26</v>
+        <v>29.5</v>
       </c>
       <c r="H59">
-        <v>31.73</v>
+        <v>31</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12174,13 +12174,13 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>22.46</v>
+        <v>59.33</v>
       </c>
       <c r="M59">
-        <v>4.8899999999999997</v>
+        <v>4.45</v>
       </c>
       <c r="N59">
-        <v>1001.16</v>
+        <v>1002.48</v>
       </c>
       <c r="O59">
         <v>0.03</v>
@@ -12192,39 +12192,39 @@
         <v>0.2</v>
       </c>
       <c r="R59">
-        <v>34.909999999999997</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="S59">
-        <v>35.24</v>
+        <v>35.32</v>
       </c>
       <c r="T59">
-        <v>33.17</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45867.333333333336</v>
+        <v>45870.333333333336</v>
       </c>
       <c r="B60">
-        <v>40.020000000000003</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="C60">
-        <v>31.33</v>
+        <v>30.7</v>
       </c>
       <c r="D60">
-        <v>39.92</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="E60">
-        <v>4.68</v>
+        <v>2.58</v>
       </c>
       <c r="F60">
-        <v>310.97000000000003</v>
+        <v>131.22</v>
       </c>
       <c r="G60">
-        <v>20.37</v>
+        <v>22.35</v>
       </c>
       <c r="H60">
-        <v>40.5</v>
+        <v>39.57</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -12236,13 +12236,13 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>23.86</v>
+        <v>58.76</v>
       </c>
       <c r="M60">
-        <v>185.66</v>
+        <v>182.43</v>
       </c>
       <c r="N60">
-        <v>1001.84</v>
+        <v>1002.79</v>
       </c>
       <c r="O60">
         <v>0.03</v>
@@ -12254,39 +12254,39 @@
         <v>0.2</v>
       </c>
       <c r="R60">
-        <v>36.04</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="S60">
-        <v>35.22</v>
+        <v>35.25</v>
       </c>
       <c r="T60">
-        <v>33.17</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45867.458333333336</v>
+        <v>45870.458333333336</v>
       </c>
       <c r="B61">
-        <v>44.76</v>
+        <v>43.49</v>
       </c>
       <c r="C61">
-        <v>39.96</v>
+        <v>38.67</v>
       </c>
       <c r="D61">
-        <v>44.86</v>
+        <v>43.48</v>
       </c>
       <c r="E61">
-        <v>5.32</v>
+        <v>4.24</v>
       </c>
       <c r="F61">
-        <v>134.36000000000001</v>
+        <v>135.76</v>
       </c>
       <c r="G61">
-        <v>18.02</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="H61">
-        <v>46.78</v>
+        <v>46.05</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -12298,13 +12298,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>17.190000000000001</v>
+        <v>56.35</v>
       </c>
       <c r="M61">
-        <v>897.59</v>
+        <v>882.54</v>
       </c>
       <c r="N61">
-        <v>1000.68</v>
+        <v>1001.6</v>
       </c>
       <c r="O61">
         <v>0.03</v>
@@ -12316,39 +12316,39 @@
         <v>0.2</v>
       </c>
       <c r="R61">
-        <v>40.659999999999997</v>
+        <v>40.58</v>
       </c>
       <c r="S61">
-        <v>35.22</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="T61">
-        <v>33.17</v>
+        <v>33.35</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45867.583333333336</v>
+        <v>45870.583333333336</v>
       </c>
       <c r="B62">
-        <v>45.22</v>
+        <v>44.36</v>
       </c>
       <c r="C62">
-        <v>39.950000000000003</v>
+        <v>38.65</v>
       </c>
       <c r="D62">
-        <v>45.73</v>
+        <v>44.56</v>
       </c>
       <c r="E62">
-        <v>5.8</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F62">
-        <v>136.91</v>
+        <v>110.94</v>
       </c>
       <c r="G62">
-        <v>18.03</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="H62">
-        <v>47.72</v>
+        <v>47.27</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -12360,13 +12360,13 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>11.69</v>
+        <v>76.56</v>
       </c>
       <c r="M62">
-        <v>911.13</v>
+        <v>894.32</v>
       </c>
       <c r="N62">
-        <v>999.15</v>
+        <v>1000.08</v>
       </c>
       <c r="O62">
         <v>0.03</v>
@@ -12378,57 +12378,57 @@
         <v>0.2</v>
       </c>
       <c r="R62">
-        <v>44.41</v>
+        <v>44.29</v>
       </c>
       <c r="S62">
-        <v>35.159999999999997</v>
+        <v>35.32</v>
       </c>
       <c r="T62">
-        <v>33.17</v>
+        <v>33.35</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45867.708333333336</v>
+        <v>45870.708333333336</v>
       </c>
       <c r="B63">
-        <v>43.01</v>
+        <v>42.28</v>
       </c>
       <c r="C63">
-        <v>42.9</v>
+        <v>42.09</v>
       </c>
       <c r="D63">
-        <v>45.35</v>
+        <v>44.42</v>
       </c>
       <c r="E63">
-        <v>5.07</v>
+        <v>4.13</v>
       </c>
       <c r="F63">
-        <v>109.88</v>
+        <v>122.64</v>
       </c>
       <c r="G63">
-        <v>19.059999999999999</v>
+        <v>20.97</v>
       </c>
       <c r="H63">
-        <v>44.23</v>
+        <v>44.15</v>
       </c>
       <c r="I63">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J63">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>23.86</v>
+        <v>91.99</v>
       </c>
       <c r="M63">
-        <v>417.89</v>
+        <v>376.76</v>
       </c>
       <c r="N63">
-        <v>999.21</v>
+        <v>1000.24</v>
       </c>
       <c r="O63">
         <v>0.03</v>
@@ -12440,57 +12440,57 @@
         <v>0.2</v>
       </c>
       <c r="R63">
-        <v>44.47</v>
+        <v>44.32</v>
       </c>
       <c r="S63">
-        <v>35.229999999999997</v>
+        <v>35.35</v>
       </c>
       <c r="T63">
-        <v>33.22</v>
+        <v>33.35</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45867.833333333336</v>
+        <v>45870.833333333336</v>
       </c>
       <c r="B64">
-        <v>38.89</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="C64">
-        <v>38.909999999999997</v>
+        <v>38.31</v>
       </c>
       <c r="D64">
-        <v>45.36</v>
+        <v>44.4</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="F64">
-        <v>136.08000000000001</v>
+        <v>133.83000000000001</v>
       </c>
       <c r="G64">
-        <v>23.26</v>
+        <v>25.21</v>
       </c>
       <c r="H64">
-        <v>39.4</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J64">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>15.16</v>
+        <v>69.45</v>
       </c>
       <c r="M64">
-        <v>214.01</v>
+        <v>192.12</v>
       </c>
       <c r="N64">
-        <v>1001.35</v>
+        <v>1002.22</v>
       </c>
       <c r="O64">
         <v>0.03</v>
@@ -12502,57 +12502,57 @@
         <v>0.2</v>
       </c>
       <c r="R64">
-        <v>41.91</v>
+        <v>41.84</v>
       </c>
       <c r="S64">
-        <v>35.28</v>
+        <v>35.44</v>
       </c>
       <c r="T64">
-        <v>33.22</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45867.958333333336</v>
+        <v>45870.958333333336</v>
       </c>
       <c r="B65">
-        <v>35.590000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="C65">
-        <v>35.67</v>
+        <v>34.51</v>
       </c>
       <c r="D65">
-        <v>38.840000000000003</v>
+        <v>38.28</v>
       </c>
       <c r="E65">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="F65">
-        <v>130.29</v>
+        <v>168.04</v>
       </c>
       <c r="G65">
-        <v>25.66</v>
+        <v>27.84</v>
       </c>
       <c r="H65">
-        <v>35.520000000000003</v>
+        <v>34.29</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J65">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>6.07</v>
+        <v>44.12</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1001.12</v>
+        <v>1002.49</v>
       </c>
       <c r="O65">
         <v>0.03</v>
@@ -12564,57 +12564,57 @@
         <v>0.2</v>
       </c>
       <c r="R65">
-        <v>39.42</v>
+        <v>39.17</v>
       </c>
       <c r="S65">
-        <v>35.33</v>
+        <v>35.44</v>
       </c>
       <c r="T65">
-        <v>33.229999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45868.083333333336</v>
+        <v>45871.083333333336</v>
       </c>
       <c r="B66">
-        <v>33.19</v>
+        <v>32.57</v>
       </c>
       <c r="C66">
-        <v>32.94</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="D66">
-        <v>38.869999999999997</v>
+        <v>38.25</v>
       </c>
       <c r="E66">
-        <v>3.18</v>
+        <v>2.46</v>
       </c>
       <c r="F66">
-        <v>315.5</v>
+        <v>226.11</v>
       </c>
       <c r="G66">
-        <v>26.25</v>
+        <v>29.7</v>
       </c>
       <c r="H66">
-        <v>32.590000000000003</v>
+        <v>31.82</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>11.64</v>
+        <v>24.36</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1000.56</v>
+        <v>1001.91</v>
       </c>
       <c r="O66">
         <v>0.03</v>
@@ -12626,57 +12626,57 @@
         <v>0.2</v>
       </c>
       <c r="R66">
-        <v>37.130000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="S66">
-        <v>35.26</v>
+        <v>35.43</v>
       </c>
       <c r="T66">
-        <v>33.229999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45868.208333333336</v>
+        <v>45871.208333333336</v>
       </c>
       <c r="B67">
-        <v>32.159999999999997</v>
+        <v>31.23</v>
       </c>
       <c r="C67">
-        <v>31.21</v>
+        <v>30.4</v>
       </c>
       <c r="D67">
-        <v>33.619999999999997</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="E67">
-        <v>3.32</v>
+        <v>2.5</v>
       </c>
       <c r="F67">
-        <v>286.37</v>
+        <v>263.76</v>
       </c>
       <c r="G67">
-        <v>27.41</v>
+        <v>31.45</v>
       </c>
       <c r="H67">
-        <v>31.32</v>
+        <v>30.45</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>35.299999999999997</v>
+        <v>9.57</v>
       </c>
       <c r="M67">
-        <v>4.72</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="N67">
-        <v>1002.2</v>
+        <v>1003.54</v>
       </c>
       <c r="O67">
         <v>0.03</v>
@@ -12688,57 +12688,57 @@
         <v>0.2</v>
       </c>
       <c r="R67">
-        <v>35.020000000000003</v>
+        <v>34.69</v>
       </c>
       <c r="S67">
-        <v>35.24</v>
+        <v>35.35</v>
       </c>
       <c r="T67">
-        <v>33.229999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45868.333333333336</v>
+        <v>45871.333333333336</v>
       </c>
       <c r="B68">
-        <v>39.33</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="C68">
-        <v>31.22</v>
+        <v>30.45</v>
       </c>
       <c r="D68">
-        <v>39.44</v>
+        <v>38.43</v>
       </c>
       <c r="E68">
-        <v>4.62</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F68">
-        <v>311.99</v>
+        <v>328.26</v>
       </c>
       <c r="G68">
-        <v>22.27</v>
+        <v>22.21</v>
       </c>
       <c r="H68">
-        <v>40.49</v>
+        <v>38.86</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>43.58</v>
+        <v>13.19</v>
       </c>
       <c r="M68">
-        <v>183.86</v>
+        <v>181.24</v>
       </c>
       <c r="N68">
-        <v>1002.98</v>
+        <v>1004.32</v>
       </c>
       <c r="O68">
         <v>0.03</v>
@@ -12750,57 +12750,57 @@
         <v>0.2</v>
       </c>
       <c r="R68">
-        <v>36.06</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="S68">
-        <v>35.229999999999997</v>
+        <v>35.32</v>
       </c>
       <c r="T68">
-        <v>33.229999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45868.458333333336</v>
+        <v>45871.458333333336</v>
       </c>
       <c r="B69">
-        <v>44.12</v>
+        <v>43.34</v>
       </c>
       <c r="C69">
-        <v>39.409999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="D69">
-        <v>44.13</v>
+        <v>43.23</v>
       </c>
       <c r="E69">
-        <v>5.38</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F69">
-        <v>129.36000000000001</v>
+        <v>140.53</v>
       </c>
       <c r="G69">
-        <v>18.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H69">
-        <v>46.45</v>
+        <v>45.25</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>55.08</v>
+        <v>1.81</v>
       </c>
       <c r="M69">
-        <v>894.29</v>
+        <v>893.6</v>
       </c>
       <c r="N69">
-        <v>1001.73</v>
+        <v>1002.95</v>
       </c>
       <c r="O69">
         <v>0.03</v>
@@ -12812,57 +12812,57 @@
         <v>0.2</v>
       </c>
       <c r="R69">
-        <v>40.450000000000003</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="S69">
-        <v>35.25</v>
+        <v>35.32</v>
       </c>
       <c r="T69">
-        <v>33.25</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45868.583333333336</v>
+        <v>45871.583333333336</v>
       </c>
       <c r="B70">
-        <v>44.96</v>
+        <v>44.57</v>
       </c>
       <c r="C70">
-        <v>39.43</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="D70">
-        <v>45.26</v>
+        <v>44.71</v>
       </c>
       <c r="E70">
-        <v>6.45</v>
+        <v>5.45</v>
       </c>
       <c r="F70">
-        <v>314.20999999999998</v>
+        <v>104.46</v>
       </c>
       <c r="G70">
-        <v>17.77</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H70">
-        <v>47.41</v>
+        <v>46.78</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>41.2</v>
+        <v>4.33</v>
       </c>
       <c r="M70">
-        <v>905.21</v>
+        <v>907.11</v>
       </c>
       <c r="N70">
-        <v>999.87</v>
+        <v>1001.18</v>
       </c>
       <c r="O70">
         <v>0.03</v>
@@ -12874,57 +12874,57 @@
         <v>0.2</v>
       </c>
       <c r="R70">
-        <v>44.23</v>
+        <v>44.79</v>
       </c>
       <c r="S70">
-        <v>35.31</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="T70">
-        <v>33.25</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45868.708333333336</v>
+        <v>45871.708333333336</v>
       </c>
       <c r="B71">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="C71">
-        <v>42.43</v>
+        <v>42.49</v>
       </c>
       <c r="D71">
-        <v>45.12</v>
+        <v>44.69</v>
       </c>
       <c r="E71">
-        <v>5.81</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F71">
-        <v>286.52999999999997</v>
+        <v>111.03</v>
       </c>
       <c r="G71">
-        <v>19.850000000000001</v>
+        <v>19.88</v>
       </c>
       <c r="H71">
-        <v>44</v>
+        <v>43.96</v>
       </c>
       <c r="I71">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>80.45</v>
+        <v>3.19</v>
       </c>
       <c r="M71">
-        <v>407.99</v>
+        <v>418.23</v>
       </c>
       <c r="N71">
-        <v>1000.07</v>
+        <v>1001.3</v>
       </c>
       <c r="O71">
         <v>0.03</v>
@@ -12936,57 +12936,57 @@
         <v>0.2</v>
       </c>
       <c r="R71">
-        <v>44.34</v>
+        <v>44.83</v>
       </c>
       <c r="S71">
-        <v>35.35</v>
+        <v>35.43</v>
       </c>
       <c r="T71">
-        <v>33.25</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45868.833333333336</v>
+        <v>45871.833333333336</v>
       </c>
       <c r="B72">
-        <v>38.479999999999997</v>
+        <v>38.42</v>
       </c>
       <c r="C72">
-        <v>38.520000000000003</v>
+        <v>38.47</v>
       </c>
       <c r="D72">
-        <v>45.09</v>
+        <v>44.65</v>
       </c>
       <c r="E72">
-        <v>3.94</v>
+        <v>3.8</v>
       </c>
       <c r="F72">
-        <v>318.23</v>
+        <v>126.09</v>
       </c>
       <c r="G72">
-        <v>23.19</v>
+        <v>23.86</v>
       </c>
       <c r="H72">
-        <v>38.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J72">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>88.85</v>
+        <v>14.15</v>
       </c>
       <c r="M72">
-        <v>208.03</v>
+        <v>213.74</v>
       </c>
       <c r="N72">
-        <v>1001.5</v>
+        <v>1003.31</v>
       </c>
       <c r="O72">
         <v>0.03</v>
@@ -12998,57 +12998,57 @@
         <v>0.2</v>
       </c>
       <c r="R72">
-        <v>41.93</v>
+        <v>42.18</v>
       </c>
       <c r="S72">
-        <v>35.43</v>
+        <v>35.47</v>
       </c>
       <c r="T72">
-        <v>33.25</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45868.958333333336</v>
+        <v>45871.958333333336</v>
       </c>
       <c r="B73">
-        <v>35.14</v>
+        <v>34.39</v>
       </c>
       <c r="C73">
-        <v>35.130000000000003</v>
+        <v>34.44</v>
       </c>
       <c r="D73">
-        <v>38.89</v>
+        <v>38.5</v>
       </c>
       <c r="E73">
-        <v>4.3499999999999996</v>
+        <v>3.42</v>
       </c>
       <c r="F73">
-        <v>325.35000000000002</v>
+        <v>154.6</v>
       </c>
       <c r="G73">
-        <v>25.31</v>
+        <v>28.67</v>
       </c>
       <c r="H73">
-        <v>34.86</v>
+        <v>34.31</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>90.51</v>
+        <v>12.41</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1001.66</v>
+        <v>1003.62</v>
       </c>
       <c r="O73">
         <v>0.03</v>
@@ -13060,57 +13060,57 @@
         <v>0.2</v>
       </c>
       <c r="R73">
-        <v>39.35</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="S73">
-        <v>35.43</v>
+        <v>35.49</v>
       </c>
       <c r="T73">
-        <v>33.25</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45869.083333333336</v>
+        <v>45872.083333333336</v>
       </c>
       <c r="B74">
-        <v>32.78</v>
+        <v>32.26</v>
       </c>
       <c r="C74">
-        <v>32.68</v>
+        <v>31.83</v>
       </c>
       <c r="D74">
-        <v>38.85</v>
+        <v>38.51</v>
       </c>
       <c r="E74">
-        <v>3.87</v>
+        <v>3.18</v>
       </c>
       <c r="F74">
-        <v>320.08</v>
+        <v>319.81</v>
       </c>
       <c r="G74">
-        <v>27.06</v>
+        <v>30.06</v>
       </c>
       <c r="H74">
-        <v>32.15</v>
+        <v>31.69</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>93.33</v>
+        <v>11.9</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1001.3</v>
+        <v>1003.21</v>
       </c>
       <c r="O74">
         <v>0.03</v>
@@ -13122,57 +13122,57 @@
         <v>0.2</v>
       </c>
       <c r="R74">
-        <v>37.04</v>
+        <v>36.93</v>
       </c>
       <c r="S74">
-        <v>35.409999999999997</v>
+        <v>35.46</v>
       </c>
       <c r="T74">
-        <v>33.31</v>
+        <v>33.450000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45869.208333333336</v>
+        <v>45872.208333333336</v>
       </c>
       <c r="B75">
-        <v>31.55</v>
+        <v>31.86</v>
       </c>
       <c r="C75">
-        <v>31.26</v>
+        <v>31.05</v>
       </c>
       <c r="D75">
-        <v>32.82</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E75">
-        <v>4.05</v>
+        <v>3.93</v>
       </c>
       <c r="F75">
-        <v>293.48</v>
+        <v>332.01</v>
       </c>
       <c r="G75">
-        <v>28.6</v>
+        <v>27.61</v>
       </c>
       <c r="H75">
-        <v>30.84</v>
+        <v>30.95</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>93.44</v>
+        <v>11.04</v>
       </c>
       <c r="M75">
-        <v>4.42</v>
+        <v>4.25</v>
       </c>
       <c r="N75">
-        <v>1002.97</v>
+        <v>1004.81</v>
       </c>
       <c r="O75">
         <v>0.03</v>
@@ -13184,57 +13184,57 @@
         <v>0.2</v>
       </c>
       <c r="R75">
-        <v>35.15</v>
+        <v>35</v>
       </c>
       <c r="S75">
-        <v>35.35</v>
+        <v>35.51</v>
       </c>
       <c r="T75">
-        <v>33.31</v>
+        <v>33.450000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45869.333333333336</v>
+        <v>45872.333333333336</v>
       </c>
       <c r="B76">
-        <v>38.450000000000003</v>
+        <v>39.94</v>
       </c>
       <c r="C76">
-        <v>31.25</v>
+        <v>31.04</v>
       </c>
       <c r="D76">
-        <v>38.44</v>
+        <v>39.94</v>
       </c>
       <c r="E76">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="F76">
-        <v>322.77999999999997</v>
+        <v>290.22000000000003</v>
       </c>
       <c r="G76">
-        <v>21.4</v>
+        <v>20.88</v>
       </c>
       <c r="H76">
-        <v>39.06</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>92.99</v>
+        <v>9.52</v>
       </c>
       <c r="M76">
-        <v>165.31</v>
+        <v>183.33</v>
       </c>
       <c r="N76">
-        <v>1003.56</v>
+        <v>1005.07</v>
       </c>
       <c r="O76">
         <v>0.03</v>
@@ -13246,57 +13246,57 @@
         <v>0.2</v>
       </c>
       <c r="R76">
-        <v>35.79</v>
+        <v>36.06</v>
       </c>
       <c r="S76">
-        <v>35.31</v>
+        <v>35.51</v>
       </c>
       <c r="T76">
-        <v>33.32</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45869.458333333336</v>
+        <v>45872.458333333336</v>
       </c>
       <c r="B77">
-        <v>43.26</v>
+        <v>44.47</v>
       </c>
       <c r="C77">
-        <v>38.450000000000003</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>43.31</v>
+        <v>44.46</v>
       </c>
       <c r="E77">
-        <v>5.65</v>
+        <v>5.99</v>
       </c>
       <c r="F77">
-        <v>318.58</v>
+        <v>149.81</v>
       </c>
       <c r="G77">
-        <v>18.13</v>
+        <v>19.14</v>
       </c>
       <c r="H77">
-        <v>45.07</v>
+        <v>47.48</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>76.25</v>
+        <v>11.21</v>
       </c>
       <c r="M77">
-        <v>852.98</v>
+        <v>892.1</v>
       </c>
       <c r="N77">
-        <v>1002.3</v>
+        <v>1003.73</v>
       </c>
       <c r="O77">
         <v>0.03</v>
@@ -13308,60 +13308,60 @@
         <v>0.2</v>
       </c>
       <c r="R77">
-        <v>39.89</v>
+        <v>40.69</v>
       </c>
       <c r="S77">
-        <v>35.31</v>
+        <v>35.5</v>
       </c>
       <c r="T77">
-        <v>33.32</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45869.583333333336</v>
+        <v>45872.583333333336</v>
       </c>
       <c r="B78">
-        <v>44.02</v>
+        <v>45.2</v>
       </c>
       <c r="C78">
-        <v>38.450000000000003</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="D78">
-        <v>44.41</v>
+        <v>45.6</v>
       </c>
       <c r="E78">
-        <v>6.56</v>
+        <v>6.82</v>
       </c>
       <c r="F78">
-        <v>313.66000000000003</v>
+        <v>103.61</v>
       </c>
       <c r="G78">
-        <v>17.77</v>
+        <v>18.53</v>
       </c>
       <c r="H78">
-        <v>46.11</v>
+        <v>48.14</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>91.98</v>
+        <v>18.62</v>
       </c>
       <c r="M78">
-        <v>864.78</v>
+        <v>890.79</v>
       </c>
       <c r="N78">
-        <v>1000.69</v>
+        <v>1001.77</v>
       </c>
       <c r="O78">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P78">
         <v>0.2</v>
@@ -13370,60 +13370,60 @@
         <v>0.2</v>
       </c>
       <c r="R78">
-        <v>43.32</v>
+        <v>44.36</v>
       </c>
       <c r="S78">
-        <v>35.25</v>
+        <v>35.53</v>
       </c>
       <c r="T78">
-        <v>33.32</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45869.708333333336</v>
+        <v>45872.708333333336</v>
       </c>
       <c r="B79">
-        <v>41.68</v>
+        <v>42.87</v>
       </c>
       <c r="C79">
-        <v>41.61</v>
+        <v>42.77</v>
       </c>
       <c r="D79">
-        <v>44.09</v>
+        <v>45.41</v>
       </c>
       <c r="E79">
-        <v>4.6399999999999997</v>
+        <v>6.19</v>
       </c>
       <c r="F79">
-        <v>287.36</v>
+        <v>144.18</v>
       </c>
       <c r="G79">
-        <v>19.989999999999998</v>
+        <v>20.59</v>
       </c>
       <c r="H79">
-        <v>42.94</v>
+        <v>44.84</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>78.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M79">
-        <v>367.05</v>
+        <v>383.77</v>
       </c>
       <c r="N79">
-        <v>1000.61</v>
+        <v>1002.15</v>
       </c>
       <c r="O79">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P79">
         <v>0.2</v>
@@ -13432,60 +13432,60 @@
         <v>0.2</v>
       </c>
       <c r="R79">
-        <v>43.33</v>
+        <v>44.25</v>
       </c>
       <c r="S79">
-        <v>35.340000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="T79">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45869.833333333336</v>
+        <v>45872.833333333336</v>
       </c>
       <c r="B80">
-        <v>37.64</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="C80">
-        <v>37.729999999999997</v>
+        <v>38.72</v>
       </c>
       <c r="D80">
-        <v>44.15</v>
+        <v>45.45</v>
       </c>
       <c r="E80">
-        <v>3.72</v>
+        <v>4.91</v>
       </c>
       <c r="F80">
-        <v>313.38</v>
+        <v>146.93</v>
       </c>
       <c r="G80">
-        <v>23.76</v>
+        <v>24.52</v>
       </c>
       <c r="H80">
-        <v>37.83</v>
+        <v>39.71</v>
       </c>
       <c r="I80">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>94.1</v>
+        <v>22.53</v>
       </c>
       <c r="M80">
-        <v>188.17</v>
+        <v>195.16</v>
       </c>
       <c r="N80">
-        <v>1002.34</v>
+        <v>1004.11</v>
       </c>
       <c r="O80">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P80">
         <v>0.2</v>
@@ -13494,60 +13494,60 @@
         <v>0.2</v>
       </c>
       <c r="R80">
-        <v>40.909999999999997</v>
+        <v>41.87</v>
       </c>
       <c r="S80">
-        <v>35.340000000000003</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="T80">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45869.958333333336</v>
+        <v>45872.958333333336</v>
       </c>
       <c r="B81">
-        <v>34.68</v>
+        <v>35.42</v>
       </c>
       <c r="C81">
-        <v>34.630000000000003</v>
+        <v>35.28</v>
       </c>
       <c r="D81">
-        <v>37.81</v>
+        <v>38.9</v>
       </c>
       <c r="E81">
-        <v>3.77</v>
+        <v>4.76</v>
       </c>
       <c r="F81">
-        <v>132.24</v>
+        <v>344.67</v>
       </c>
       <c r="G81">
-        <v>25.02</v>
+        <v>26.76</v>
       </c>
       <c r="H81">
-        <v>34.07</v>
+        <v>35.61</v>
       </c>
       <c r="I81">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>86.3</v>
+        <v>13.03</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1002.42</v>
+        <v>1004.24</v>
       </c>
       <c r="O81">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P81">
         <v>0.2</v>
@@ -13556,57 +13556,57 @@
         <v>0.2</v>
       </c>
       <c r="R81">
-        <v>38.51</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="S81">
-        <v>35.35</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="T81">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45870.083333333336</v>
+        <v>45873.083333333336</v>
       </c>
       <c r="B82">
-        <v>31.75</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="C82">
-        <v>31.65</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="D82">
-        <v>37.869999999999997</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="E82">
-        <v>3.4</v>
+        <v>4.29</v>
       </c>
       <c r="F82">
-        <v>328.05</v>
+        <v>342.34</v>
       </c>
       <c r="G82">
-        <v>28.54</v>
+        <v>27.48</v>
       </c>
       <c r="H82">
-        <v>31.16</v>
+        <v>32.92</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>61.96</v>
+        <v>8.32</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1002.57</v>
+        <v>1003.92</v>
       </c>
       <c r="O82">
         <v>0.02</v>
@@ -13618,57 +13618,57 @@
         <v>0.2</v>
       </c>
       <c r="R82">
-        <v>36.4</v>
+        <v>37.29</v>
       </c>
       <c r="S82">
-        <v>35.340000000000003</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="T82">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45870.208333333336</v>
+        <v>45873.208333333336</v>
       </c>
       <c r="B83">
-        <v>30.69</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="C83">
-        <v>30.26</v>
+        <v>31.84</v>
       </c>
       <c r="D83">
-        <v>31.75</v>
+        <v>33.44</v>
       </c>
       <c r="E83">
-        <v>3.52</v>
+        <v>5.03</v>
       </c>
       <c r="F83">
-        <v>305.64999999999998</v>
+        <v>342.01</v>
       </c>
       <c r="G83">
-        <v>29.52</v>
+        <v>26.92</v>
       </c>
       <c r="H83">
-        <v>29.97</v>
+        <v>31.36</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>57.34</v>
+        <v>10.51</v>
       </c>
       <c r="M83">
-        <v>4.54</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="N83">
-        <v>1004.12</v>
+        <v>1005.21</v>
       </c>
       <c r="O83">
         <v>0.02</v>
@@ -13680,57 +13680,57 @@
         <v>0.2</v>
       </c>
       <c r="R83">
-        <v>34.369999999999997</v>
+        <v>35.56</v>
       </c>
       <c r="S83">
-        <v>35.25</v>
+        <v>35.56</v>
       </c>
       <c r="T83">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45870.333333333336</v>
+        <v>45873.333333333336</v>
       </c>
       <c r="B84">
-        <v>38.19</v>
+        <v>40.18</v>
       </c>
       <c r="C84">
-        <v>30.28</v>
+        <v>31.86</v>
       </c>
       <c r="D84">
-        <v>38.130000000000003</v>
+        <v>40.17</v>
       </c>
       <c r="E84">
-        <v>4.0199999999999996</v>
+        <v>7.29</v>
       </c>
       <c r="F84">
-        <v>127.64</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>20.74</v>
+        <v>20.86</v>
       </c>
       <c r="H84">
-        <v>38.19</v>
+        <v>41.2</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>46.87</v>
+        <v>5.27</v>
       </c>
       <c r="M84">
-        <v>178.98</v>
+        <v>182.82</v>
       </c>
       <c r="N84">
-        <v>1004.4</v>
+        <v>1005.32</v>
       </c>
       <c r="O84">
         <v>0.02</v>
@@ -13742,57 +13742,57 @@
         <v>0.2</v>
       </c>
       <c r="R84">
-        <v>35.33</v>
+        <v>36.49</v>
       </c>
       <c r="S84">
-        <v>35.31</v>
+        <v>35.56</v>
       </c>
       <c r="T84">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45870.458333333336</v>
+        <v>45873.458333333336</v>
       </c>
       <c r="B85">
-        <v>42.8</v>
+        <v>44.57</v>
       </c>
       <c r="C85">
-        <v>38.17</v>
+        <v>40.21</v>
       </c>
       <c r="D85">
-        <v>42.72</v>
+        <v>44.55</v>
       </c>
       <c r="E85">
-        <v>5.26</v>
+        <v>6.69</v>
       </c>
       <c r="F85">
-        <v>314.75</v>
+        <v>294.25</v>
       </c>
       <c r="G85">
-        <v>18.62</v>
+        <v>18.75</v>
       </c>
       <c r="H85">
-        <v>44.45</v>
+        <v>47.58</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>33</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="M85">
-        <v>893.48</v>
+        <v>894.68</v>
       </c>
       <c r="N85">
-        <v>1003.47</v>
+        <v>1003.74</v>
       </c>
       <c r="O85">
         <v>0.02</v>
@@ -13804,57 +13804,57 @@
         <v>0.2</v>
       </c>
       <c r="R85">
-        <v>39.64</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="S85">
-        <v>35.299999999999997</v>
+        <v>35.56</v>
       </c>
       <c r="T85">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45870.583333333336</v>
+        <v>45873.583333333336</v>
       </c>
       <c r="B86">
-        <v>43.5</v>
+        <v>45.18</v>
       </c>
       <c r="C86">
-        <v>38.17</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D86">
-        <v>43.8</v>
+        <v>45.75</v>
       </c>
       <c r="E86">
-        <v>6.07</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>305.39</v>
+        <v>334.77</v>
       </c>
       <c r="G86">
-        <v>18.899999999999999</v>
+        <v>18.66</v>
       </c>
       <c r="H86">
-        <v>46.05</v>
+        <v>48.48</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>23.54</v>
+        <v>23.08</v>
       </c>
       <c r="M86">
-        <v>905.7</v>
+        <v>888.96</v>
       </c>
       <c r="N86">
-        <v>1001.91</v>
+        <v>1001.64</v>
       </c>
       <c r="O86">
         <v>0.02</v>
@@ -13866,57 +13866,57 @@
         <v>0.2</v>
       </c>
       <c r="R86">
-        <v>43.17</v>
+        <v>43.98</v>
       </c>
       <c r="S86">
-        <v>35.299999999999997</v>
+        <v>35.56</v>
       </c>
       <c r="T86">
-        <v>33.33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45870.708333333336</v>
+        <v>45873.708333333336</v>
       </c>
       <c r="B87">
-        <v>41.35</v>
+        <v>42.82</v>
       </c>
       <c r="C87">
-        <v>41.28</v>
+        <v>42.83</v>
       </c>
       <c r="D87">
-        <v>43.67</v>
+        <v>45.35</v>
       </c>
       <c r="E87">
-        <v>5.24</v>
+        <v>7.61</v>
       </c>
       <c r="F87">
-        <v>299.54000000000002</v>
+        <v>302.93</v>
       </c>
       <c r="G87">
-        <v>20.38</v>
+        <v>20.87</v>
       </c>
       <c r="H87">
-        <v>42.6</v>
+        <v>45.44</v>
       </c>
       <c r="I87">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>32.54</v>
+        <v>24.09</v>
       </c>
       <c r="M87">
-        <v>413</v>
+        <v>391.65</v>
       </c>
       <c r="N87">
-        <v>1002.19</v>
+        <v>1001.74</v>
       </c>
       <c r="O87">
         <v>0.02</v>
@@ -13928,57 +13928,57 @@
         <v>0.2</v>
       </c>
       <c r="R87">
-        <v>43.36</v>
+        <v>44.05</v>
       </c>
       <c r="S87">
-        <v>35.340000000000003</v>
+        <v>35.65</v>
       </c>
       <c r="T87">
-        <v>33.4</v>
+        <v>33.520000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45870.833333333336</v>
+        <v>45873.833333333336</v>
       </c>
       <c r="B88">
-        <v>37.11</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="C88">
-        <v>37.22</v>
+        <v>38.47</v>
       </c>
       <c r="D88">
-        <v>43.56</v>
+        <v>45.29</v>
       </c>
       <c r="E88">
-        <v>4.6100000000000003</v>
+        <v>5.44</v>
       </c>
       <c r="F88">
-        <v>298</v>
+        <v>102.41</v>
       </c>
       <c r="G88">
-        <v>24.77</v>
+        <v>25.62</v>
       </c>
       <c r="H88">
-        <v>37.25</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>20.03</v>
+        <v>28.31</v>
       </c>
       <c r="M88">
-        <v>211.18</v>
+        <v>199.98</v>
       </c>
       <c r="N88">
-        <v>1004.21</v>
+        <v>1003.38</v>
       </c>
       <c r="O88">
         <v>0.02</v>
@@ -13990,57 +13990,57 @@
         <v>0.2</v>
       </c>
       <c r="R88">
-        <v>40.98</v>
+        <v>41.7</v>
       </c>
       <c r="S88">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="T88">
-        <v>33.4</v>
+        <v>33.54</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45870.958333333336</v>
+        <v>45873.958333333336</v>
       </c>
       <c r="B89">
-        <v>34.15</v>
+        <v>35.11</v>
       </c>
       <c r="C89">
-        <v>34.18</v>
+        <v>35.07</v>
       </c>
       <c r="D89">
-        <v>37.090000000000003</v>
+        <v>38.42</v>
       </c>
       <c r="E89">
-        <v>3.59</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F89">
-        <v>312.8</v>
+        <v>141.32</v>
       </c>
       <c r="G89">
-        <v>25.5</v>
+        <v>26.47</v>
       </c>
       <c r="H89">
-        <v>33.520000000000003</v>
+        <v>35.07</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>8.67</v>
+        <v>59.28</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>1004.07</v>
+        <v>1003.02</v>
       </c>
       <c r="O89">
         <v>0.02</v>
@@ -14052,57 +14052,57 @@
         <v>0.2</v>
       </c>
       <c r="R89">
-        <v>38.549999999999997</v>
+        <v>39.32</v>
       </c>
       <c r="S89">
-        <v>35.4</v>
+        <v>35.61</v>
       </c>
       <c r="T89">
-        <v>33.4</v>
+        <v>33.590000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45871.083333333336</v>
+        <v>45874.083333333336</v>
       </c>
       <c r="B90">
-        <v>31.98</v>
+        <v>32.9</v>
       </c>
       <c r="C90">
-        <v>31.92</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="D90">
-        <v>37.049999999999997</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="E90">
-        <v>3.85</v>
+        <v>4.32</v>
       </c>
       <c r="F90">
-        <v>310.14999999999998</v>
+        <v>93.7</v>
       </c>
       <c r="G90">
-        <v>26.48</v>
+        <v>26.63</v>
       </c>
       <c r="H90">
-        <v>31.12</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>1.69</v>
+        <v>21.56</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1003.53</v>
+        <v>1002.34</v>
       </c>
       <c r="O90">
         <v>0.02</v>
@@ -14114,57 +14114,57 @@
         <v>0.2</v>
       </c>
       <c r="R90">
-        <v>36.32</v>
+        <v>37.29</v>
       </c>
       <c r="S90">
-        <v>35.35</v>
+        <v>35.6</v>
       </c>
       <c r="T90">
-        <v>33.4</v>
+        <v>33.590000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45871.208333333336</v>
+        <v>45874.208333333336</v>
       </c>
       <c r="B91">
-        <v>30.58</v>
+        <v>31.29</v>
       </c>
       <c r="C91">
-        <v>30.28</v>
+        <v>30.95</v>
       </c>
       <c r="D91">
-        <v>31.94</v>
+        <v>32.96</v>
       </c>
       <c r="E91">
-        <v>3.58</v>
+        <v>4.03</v>
       </c>
       <c r="F91">
-        <v>315.37</v>
+        <v>290.27</v>
       </c>
       <c r="G91">
-        <v>27.35</v>
+        <v>27.23</v>
       </c>
       <c r="H91">
-        <v>29.65</v>
+        <v>30.53</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0.95</v>
+        <v>24.04</v>
       </c>
       <c r="M91">
-        <v>4.4000000000000004</v>
+        <v>4.08</v>
       </c>
       <c r="N91">
-        <v>1004.86</v>
+        <v>1003.55</v>
       </c>
       <c r="O91">
         <v>0.02</v>
@@ -14176,57 +14176,57 @@
         <v>0.2</v>
       </c>
       <c r="R91">
-        <v>34.35</v>
+        <v>35.36</v>
       </c>
       <c r="S91">
-        <v>35.24</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="T91">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45871.333333333336</v>
+        <v>45874.333333333336</v>
       </c>
       <c r="B92">
-        <v>38.69</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="C92">
-        <v>30.33</v>
+        <v>30.93</v>
       </c>
       <c r="D92">
-        <v>38.590000000000003</v>
+        <v>38.61</v>
       </c>
       <c r="E92">
-        <v>6.5</v>
+        <v>5.26</v>
       </c>
       <c r="F92">
-        <v>323.89999999999998</v>
+        <v>160.34</v>
       </c>
       <c r="G92">
-        <v>20.440000000000001</v>
+        <v>22.02</v>
       </c>
       <c r="H92">
-        <v>38.520000000000003</v>
+        <v>39.61</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>4.46</v>
+        <v>31.3</v>
       </c>
       <c r="M92">
-        <v>186.11</v>
+        <v>181.64</v>
       </c>
       <c r="N92">
-        <v>1004.97</v>
+        <v>1003.47</v>
       </c>
       <c r="O92">
         <v>0.02</v>
@@ -14238,57 +14238,57 @@
         <v>0.2</v>
       </c>
       <c r="R92">
-        <v>35.31</v>
+        <v>36.11</v>
       </c>
       <c r="S92">
-        <v>35.200000000000003</v>
+        <v>35.51</v>
       </c>
       <c r="T92">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45871.458333333336</v>
+        <v>45874.458333333336</v>
       </c>
       <c r="B93">
-        <v>43.29</v>
+        <v>43.32</v>
       </c>
       <c r="C93">
-        <v>38.71</v>
+        <v>38.64</v>
       </c>
       <c r="D93">
-        <v>43.3</v>
+        <v>43.36</v>
       </c>
       <c r="E93">
-        <v>6.75</v>
+        <v>6.22</v>
       </c>
       <c r="F93">
-        <v>131.51</v>
+        <v>132.59</v>
       </c>
       <c r="G93">
-        <v>18.55</v>
+        <v>19.23</v>
       </c>
       <c r="H93">
-        <v>44.96</v>
+        <v>45.87</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>3.67</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="M93">
-        <v>901.37</v>
+        <v>882.07</v>
       </c>
       <c r="N93">
-        <v>1003.77</v>
+        <v>1002.01</v>
       </c>
       <c r="O93">
         <v>0.02</v>
@@ -14300,57 +14300,57 @@
         <v>0.2</v>
       </c>
       <c r="R93">
-        <v>39.28</v>
+        <v>40.08</v>
       </c>
       <c r="S93">
-        <v>35.200000000000003</v>
+        <v>35.51</v>
       </c>
       <c r="T93">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45871.583333333336</v>
+        <v>45874.583333333336</v>
       </c>
       <c r="B94">
-        <v>44.22</v>
+        <v>44.13</v>
       </c>
       <c r="C94">
-        <v>38.71</v>
+        <v>38.61</v>
       </c>
       <c r="D94">
-        <v>44.47</v>
+        <v>44.67</v>
       </c>
       <c r="E94">
-        <v>6.56</v>
+        <v>7.26</v>
       </c>
       <c r="F94">
-        <v>138.11000000000001</v>
+        <v>326.42</v>
       </c>
       <c r="G94">
-        <v>18.43</v>
+        <v>18.55</v>
       </c>
       <c r="H94">
-        <v>46.74</v>
+        <v>46.72</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>3.9</v>
+        <v>74.39</v>
       </c>
       <c r="M94">
-        <v>913.68</v>
+        <v>891.37</v>
       </c>
       <c r="N94">
-        <v>1001.98</v>
+        <v>999.94</v>
       </c>
       <c r="O94">
         <v>0.02</v>
@@ -14362,57 +14362,57 @@
         <v>0.2</v>
       </c>
       <c r="R94">
-        <v>42.92</v>
+        <v>43.33</v>
       </c>
       <c r="S94">
-        <v>35.200000000000003</v>
+        <v>35.51</v>
       </c>
       <c r="T94">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45871.708333333336</v>
+        <v>45874.708333333336</v>
       </c>
       <c r="B95">
-        <v>41.81</v>
+        <v>41.59</v>
       </c>
       <c r="C95">
-        <v>41.78</v>
+        <v>41.52</v>
       </c>
       <c r="D95">
-        <v>44.37</v>
+        <v>44.35</v>
       </c>
       <c r="E95">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="F95">
-        <v>106.5</v>
+        <v>295.48</v>
       </c>
       <c r="G95">
-        <v>20.22</v>
+        <v>20.02</v>
       </c>
       <c r="H95">
-        <v>42.93</v>
+        <v>42.78</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1.1200000000000001</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="M95">
-        <v>421.06</v>
+        <v>384.67</v>
       </c>
       <c r="N95">
-        <v>1002.13</v>
+        <v>1000.06</v>
       </c>
       <c r="O95">
         <v>0.02</v>
@@ -14424,57 +14424,57 @@
         <v>0.2</v>
       </c>
       <c r="R95">
-        <v>43.33</v>
+        <v>43.3</v>
       </c>
       <c r="S95">
-        <v>35.229999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="T95">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45871.833333333336</v>
+        <v>45874.833333333336</v>
       </c>
       <c r="B96">
-        <v>37.369999999999997</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="C96">
-        <v>37.409999999999997</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="D96">
-        <v>44.29</v>
+        <v>44.23</v>
       </c>
       <c r="E96">
-        <v>4.26</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F96">
-        <v>144.38</v>
+        <v>115.19</v>
       </c>
       <c r="G96">
-        <v>25.43</v>
+        <v>24.46</v>
       </c>
       <c r="H96">
-        <v>37.43</v>
+        <v>37.06</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>6.2</v>
+        <v>72.11</v>
       </c>
       <c r="M96">
-        <v>215.24</v>
+        <v>196.56</v>
       </c>
       <c r="N96">
-        <v>1003.96</v>
+        <v>1001.72</v>
       </c>
       <c r="O96">
         <v>0.02</v>
@@ -14486,57 +14486,57 @@
         <v>0.2</v>
       </c>
       <c r="R96">
-        <v>41.04</v>
+        <v>40.89</v>
       </c>
       <c r="S96">
-        <v>35.25</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="T96">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45871.958333333336</v>
+        <v>45874.958333333336</v>
       </c>
       <c r="B97">
-        <v>33.909999999999997</v>
+        <v>34.03</v>
       </c>
       <c r="C97">
         <v>33.97</v>
       </c>
       <c r="D97">
-        <v>37.340000000000003</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="E97">
         <v>4.0199999999999996</v>
       </c>
       <c r="F97">
-        <v>131.59</v>
+        <v>160.72</v>
       </c>
       <c r="G97">
-        <v>29.43</v>
+        <v>23.47</v>
       </c>
       <c r="H97">
-        <v>33.53</v>
+        <v>32.86</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>13.44</v>
+        <v>76.77</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1004.24</v>
+        <v>1001.31</v>
       </c>
       <c r="O97">
         <v>0.02</v>
@@ -14548,60 +14548,60 @@
         <v>0.2</v>
       </c>
       <c r="R97">
-        <v>38.6</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="S97">
-        <v>35.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="T97">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45872.083333333336</v>
+        <v>45875.083333333336</v>
       </c>
       <c r="B98">
-        <v>32.29</v>
+        <v>31.83</v>
       </c>
       <c r="C98">
-        <v>32.19</v>
+        <v>31.68</v>
       </c>
       <c r="D98">
-        <v>37.31</v>
+        <v>37.18</v>
       </c>
       <c r="E98">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="F98">
-        <v>327.58999999999997</v>
+        <v>137.49</v>
       </c>
       <c r="G98">
-        <v>28.71</v>
+        <v>23</v>
       </c>
       <c r="H98">
-        <v>31.5</v>
+        <v>30.42</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>4.88</v>
+        <v>74.39</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
-        <v>1003.6</v>
+        <v>1000.82</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P98">
         <v>0.2</v>
@@ -14610,60 +14610,60 @@
         <v>0.2</v>
       </c>
       <c r="R98">
-        <v>36.479999999999997</v>
+        <v>36.18</v>
       </c>
       <c r="S98">
-        <v>35.29</v>
+        <v>35.67</v>
       </c>
       <c r="T98">
-        <v>33.42</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45872.208333333336</v>
+        <v>45875.208333333336</v>
       </c>
       <c r="B99">
-        <v>30.58</v>
+        <v>30.9</v>
       </c>
       <c r="C99">
-        <v>30.28</v>
+        <v>30.15</v>
       </c>
       <c r="D99">
-        <v>32.43</v>
+        <v>32.03</v>
       </c>
       <c r="E99">
-        <v>4.6100000000000003</v>
+        <v>3.06</v>
       </c>
       <c r="F99">
-        <v>322.77999999999997</v>
+        <v>172.76</v>
       </c>
       <c r="G99">
-        <v>29.19</v>
+        <v>23.57</v>
       </c>
       <c r="H99">
-        <v>29.77</v>
+        <v>29.61</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.99</v>
+        <v>40.53</v>
       </c>
       <c r="M99">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="N99">
-        <v>1005.47</v>
+        <v>1001.72</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P99">
         <v>0.2</v>
@@ -14672,60 +14672,60 @@
         <v>0.2</v>
       </c>
       <c r="R99">
-        <v>34.69</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="S99">
-        <v>35.299999999999997</v>
+        <v>35.61</v>
       </c>
       <c r="T99">
-        <v>33.43</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45872.333333333336</v>
+        <v>45875.333333333336</v>
       </c>
       <c r="B100">
-        <v>38.590000000000003</v>
+        <v>37.86</v>
       </c>
       <c r="C100">
-        <v>30.26</v>
+        <v>30.21</v>
       </c>
       <c r="D100">
-        <v>38.520000000000003</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="E100">
-        <v>7.01</v>
+        <v>3.45</v>
       </c>
       <c r="F100">
-        <v>141.97999999999999</v>
+        <v>139.54</v>
       </c>
       <c r="G100">
-        <v>20.79</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="H100">
-        <v>38.75</v>
+        <v>37.75</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1.43</v>
+        <v>53.07</v>
       </c>
       <c r="M100">
-        <v>183.36</v>
+        <v>176.54</v>
       </c>
       <c r="N100">
-        <v>1005.76</v>
+        <v>1002.18</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P100">
         <v>0.2</v>
@@ -14734,60 +14734,60 @@
         <v>0.2</v>
       </c>
       <c r="R100">
-        <v>35.450000000000003</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="S100">
-        <v>35.25</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="T100">
-        <v>33.43</v>
+        <v>33.619999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45872.458333333336</v>
+        <v>45875.458333333336</v>
       </c>
       <c r="B101">
-        <v>43.41</v>
+        <v>42.56</v>
       </c>
       <c r="C101">
-        <v>38.6</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="D101">
-        <v>43.49</v>
+        <v>42.57</v>
       </c>
       <c r="E101">
-        <v>7.42</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F101">
-        <v>137.51</v>
+        <v>137.76</v>
       </c>
       <c r="G101">
-        <v>18.55</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="H101">
-        <v>45.15</v>
+        <v>43.53</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.8</v>
+        <v>59.45</v>
       </c>
       <c r="M101">
-        <v>895.33</v>
+        <v>888.95</v>
       </c>
       <c r="N101">
-        <v>1004.6</v>
+        <v>1000.67</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P101">
         <v>0.2</v>
@@ -14796,60 +14796,60 @@
         <v>0.2</v>
       </c>
       <c r="R101">
-        <v>39.369999999999997</v>
+        <v>39.26</v>
       </c>
       <c r="S101">
-        <v>35.270000000000003</v>
+        <v>35.51</v>
       </c>
       <c r="T101">
-        <v>33.479999999999997</v>
+        <v>33.619999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45872.583333333336</v>
+        <v>45875.583333333336</v>
       </c>
       <c r="B102">
-        <v>44.48</v>
+        <v>43.7</v>
       </c>
       <c r="C102">
-        <v>38.6</v>
+        <v>37.89</v>
       </c>
       <c r="D102">
-        <v>44.71</v>
+        <v>43.94</v>
       </c>
       <c r="E102">
-        <v>7.79</v>
+        <v>4.59</v>
       </c>
       <c r="F102">
-        <v>329.11</v>
+        <v>109.96</v>
       </c>
       <c r="G102">
-        <v>17.75</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="H102">
-        <v>46.47</v>
+        <v>44.52</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1.92</v>
+        <v>57.73</v>
       </c>
       <c r="M102">
-        <v>908.17</v>
+        <v>890.14</v>
       </c>
       <c r="N102">
-        <v>1002.34</v>
+        <v>999.04</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P102">
         <v>0.2</v>
@@ -14858,60 +14858,60 @@
         <v>0.2</v>
       </c>
       <c r="R102">
-        <v>42.79</v>
+        <v>42.76</v>
       </c>
       <c r="S102">
-        <v>35.33</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="T102">
-        <v>33.479999999999997</v>
+        <v>33.619999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45872.708333333336</v>
+        <v>45875.708333333336</v>
       </c>
       <c r="B103">
-        <v>41.76</v>
+        <v>41.08</v>
       </c>
       <c r="C103">
-        <v>41.72</v>
+        <v>41.04</v>
       </c>
       <c r="D103">
-        <v>44.55</v>
+        <v>43.84</v>
       </c>
       <c r="E103">
-        <v>6.84</v>
+        <v>4.22</v>
       </c>
       <c r="F103">
-        <v>292.29000000000002</v>
+        <v>105.11</v>
       </c>
       <c r="G103">
-        <v>20.05</v>
+        <v>18.22</v>
       </c>
       <c r="H103">
-        <v>42.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>13.36</v>
+        <v>21.66</v>
       </c>
       <c r="M103">
-        <v>417.68</v>
+        <v>393.86</v>
       </c>
       <c r="N103">
-        <v>1002.5</v>
+        <v>999.31</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P103">
         <v>0.2</v>
@@ -14920,60 +14920,60 @@
         <v>0.2</v>
       </c>
       <c r="R103">
-        <v>43.13</v>
+        <v>42.8</v>
       </c>
       <c r="S103">
-        <v>35.33</v>
+        <v>35.5</v>
       </c>
       <c r="T103">
-        <v>33.479999999999997</v>
+        <v>33.619999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45872.833333333336</v>
+        <v>45875.833333333336</v>
       </c>
       <c r="B104">
-        <v>37.33</v>
+        <v>36.71</v>
       </c>
       <c r="C104">
-        <v>37.43</v>
+        <v>36.79</v>
       </c>
       <c r="D104">
-        <v>44.54</v>
+        <v>43.78</v>
       </c>
       <c r="E104">
-        <v>5.76</v>
+        <v>2.88</v>
       </c>
       <c r="F104">
-        <v>332.62</v>
+        <v>124.15</v>
       </c>
       <c r="G104">
-        <v>25.19</v>
+        <v>22.72</v>
       </c>
       <c r="H104">
-        <v>37.520000000000003</v>
+        <v>35.81</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>12.08</v>
+        <v>19.98</v>
       </c>
       <c r="M104">
-        <v>213.36</v>
+        <v>200.96</v>
       </c>
       <c r="N104">
-        <v>1004.19</v>
+        <v>1001.31</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P104">
         <v>0.2</v>
@@ -14982,60 +14982,60 @@
         <v>0.2</v>
       </c>
       <c r="R104">
-        <v>40.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="S104">
-        <v>35.35</v>
+        <v>35.51</v>
       </c>
       <c r="T104">
-        <v>33.479999999999997</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45872.958333333336</v>
+        <v>45875.958333333336</v>
       </c>
       <c r="B105">
-        <v>34.25</v>
+        <v>32.92</v>
       </c>
       <c r="C105">
-        <v>34.32</v>
+        <v>32.93</v>
       </c>
       <c r="D105">
-        <v>37.33</v>
+        <v>36.83</v>
       </c>
       <c r="E105">
-        <v>5.65</v>
+        <v>2.9</v>
       </c>
       <c r="F105">
-        <v>334.02</v>
+        <v>173.81</v>
       </c>
       <c r="G105">
-        <v>26.44</v>
+        <v>24.33</v>
       </c>
       <c r="H105">
-        <v>33.65</v>
+        <v>31.57</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>16.52</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1004.16</v>
+        <v>1001.64</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P105">
         <v>0.2</v>
@@ -15044,60 +15044,60 @@
         <v>0.2</v>
       </c>
       <c r="R105">
-        <v>38.659999999999997</v>
+        <v>37.82</v>
       </c>
       <c r="S105">
-        <v>35.36</v>
+        <v>35.5</v>
       </c>
       <c r="T105">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45873.083333333336</v>
+        <v>45876.083333333336</v>
       </c>
       <c r="B106">
-        <v>31.79</v>
+        <v>30.5</v>
       </c>
       <c r="C106">
-        <v>31.82</v>
+        <v>30.49</v>
       </c>
       <c r="D106">
-        <v>37.35</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="E106">
-        <v>5.64</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F106">
-        <v>332.19</v>
+        <v>285.06</v>
       </c>
       <c r="G106">
-        <v>26.92</v>
+        <v>25.93</v>
       </c>
       <c r="H106">
-        <v>30.83</v>
+        <v>29.28</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
-        <v>31.81</v>
+        <v>14.04</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>1003.45</v>
+        <v>1001.54</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P106">
         <v>0.2</v>
@@ -15106,60 +15106,60 @@
         <v>0.2</v>
       </c>
       <c r="R106">
-        <v>36.479999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="S106">
-        <v>35.35</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="T106">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45873.208333333336</v>
+        <v>45876.208333333336</v>
       </c>
       <c r="B107">
-        <v>30.53</v>
+        <v>29.81</v>
       </c>
       <c r="C107">
-        <v>30.21</v>
+        <v>28.82</v>
       </c>
       <c r="D107">
-        <v>31.75</v>
+        <v>31.11</v>
       </c>
       <c r="E107">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="F107">
-        <v>339.49</v>
+        <v>296.73</v>
       </c>
       <c r="G107">
-        <v>28.12</v>
+        <v>25.75</v>
       </c>
       <c r="H107">
-        <v>29.49</v>
+        <v>28.67</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>34.94</v>
+        <v>1.58</v>
       </c>
       <c r="M107">
-        <v>4.08</v>
+        <v>3.84</v>
       </c>
       <c r="N107">
-        <v>1004.58</v>
+        <v>1002.81</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P107">
         <v>0.2</v>
@@ -15168,60 +15168,60 @@
         <v>0.2</v>
       </c>
       <c r="R107">
-        <v>34.69</v>
+        <v>33.33</v>
       </c>
       <c r="S107">
-        <v>35.270000000000003</v>
+        <v>35.44</v>
       </c>
       <c r="T107">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45873.333333333336</v>
+        <v>45876.333333333336</v>
       </c>
       <c r="B108">
-        <v>38.44</v>
+        <v>37.72</v>
       </c>
       <c r="C108">
-        <v>30.15</v>
+        <v>28.9</v>
       </c>
       <c r="D108">
-        <v>38.46</v>
+        <v>37.65</v>
       </c>
       <c r="E108">
-        <v>6.35</v>
+        <v>3.77</v>
       </c>
       <c r="F108">
-        <v>144.79</v>
+        <v>317.33999999999997</v>
       </c>
       <c r="G108">
-        <v>20.18</v>
+        <v>18.86</v>
       </c>
       <c r="H108">
-        <v>38.47</v>
+        <v>37.26</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>9.73</v>
+        <v>0.23</v>
       </c>
       <c r="M108">
-        <v>181.01</v>
+        <v>184.83</v>
       </c>
       <c r="N108">
-        <v>1004.89</v>
+        <v>1003.39</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P108">
         <v>0.2</v>
@@ -15230,60 +15230,60 @@
         <v>0.2</v>
       </c>
       <c r="R108">
-        <v>35.4</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="S108">
-        <v>35.25</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="T108">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45873.458333333336</v>
+        <v>45876.458333333336</v>
       </c>
       <c r="B109">
-        <v>43.31</v>
+        <v>42.75</v>
       </c>
       <c r="C109">
-        <v>38.43</v>
+        <v>37.74</v>
       </c>
       <c r="D109">
-        <v>43.4</v>
+        <v>42.81</v>
       </c>
       <c r="E109">
-        <v>7.44</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F109">
-        <v>325.67</v>
+        <v>121.19</v>
       </c>
       <c r="G109">
-        <v>17.05</v>
+        <v>16.13</v>
       </c>
       <c r="H109">
-        <v>44.5</v>
+        <v>43.36</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>33.64</v>
+        <v>1.41</v>
       </c>
       <c r="M109">
-        <v>897.88</v>
+        <v>907.03</v>
       </c>
       <c r="N109">
-        <v>1003.43</v>
+        <v>1002.19</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P109">
         <v>0.2</v>
@@ -15292,60 +15292,60 @@
         <v>0.2</v>
       </c>
       <c r="R109">
-        <v>39.31</v>
+        <v>38.72</v>
       </c>
       <c r="S109">
-        <v>35.18</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="T109">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45873.583333333336</v>
+        <v>45876.583333333336</v>
       </c>
       <c r="B110">
-        <v>44.17</v>
+        <v>44.12</v>
       </c>
       <c r="C110">
-        <v>38.450000000000003</v>
+        <v>37.75</v>
       </c>
       <c r="D110">
-        <v>44.39</v>
+        <v>44.27</v>
       </c>
       <c r="E110">
-        <v>8.2799999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="F110">
-        <v>321.67</v>
+        <v>113.7</v>
       </c>
       <c r="G110">
-        <v>16.29</v>
+        <v>15.76</v>
       </c>
       <c r="H110">
-        <v>45.46</v>
+        <v>44.83</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>28.87</v>
+        <v>3.15</v>
       </c>
       <c r="M110">
-        <v>909.15</v>
+        <v>919.03</v>
       </c>
       <c r="N110">
-        <v>1001.37</v>
+        <v>1000.72</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P110">
         <v>0.2</v>
@@ -15354,60 +15354,60 @@
         <v>0.2</v>
       </c>
       <c r="R110">
-        <v>42.79</v>
+        <v>42.48</v>
       </c>
       <c r="S110">
-        <v>35.25</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="T110">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45873.708333333336</v>
+        <v>45876.708333333336</v>
       </c>
       <c r="B111">
-        <v>41.19</v>
+        <v>41.51</v>
       </c>
       <c r="C111">
-        <v>41.15</v>
+        <v>41.46</v>
       </c>
       <c r="D111">
-        <v>44.3</v>
+        <v>44.18</v>
       </c>
       <c r="E111">
-        <v>6.34</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F111">
-        <v>289.77999999999997</v>
+        <v>120.76</v>
       </c>
       <c r="G111">
-        <v>18.100000000000001</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="H111">
-        <v>41.6</v>
+        <v>41.58</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>37.520000000000003</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="M111">
-        <v>405.78</v>
+        <v>417.08</v>
       </c>
       <c r="N111">
-        <v>1001.79</v>
+        <v>1001.06</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P111">
         <v>0.2</v>
@@ -15416,36 +15416,36 @@
         <v>0.2</v>
       </c>
       <c r="R111">
-        <v>43.03</v>
+        <v>42.72</v>
       </c>
       <c r="S111">
-        <v>35.270000000000003</v>
+        <v>35.49</v>
       </c>
       <c r="T111">
-        <v>33.479999999999997</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45873.833333333336</v>
+        <v>45876.833333333336</v>
       </c>
       <c r="B112">
         <v>36.97</v>
       </c>
       <c r="C112">
-        <v>36.880000000000003</v>
+        <v>37.01</v>
       </c>
       <c r="D112">
-        <v>44.38</v>
+        <v>44.05</v>
       </c>
       <c r="E112">
-        <v>5.42</v>
+        <v>2.85</v>
       </c>
       <c r="F112">
-        <v>332.38</v>
+        <v>163.76</v>
       </c>
       <c r="G112">
-        <v>20.92</v>
+        <v>22.72</v>
       </c>
       <c r="H112">
         <v>36.369999999999997</v>
@@ -15454,22 +15454,22 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>39.94</v>
+        <v>1.34</v>
       </c>
       <c r="M112">
-        <v>207.13</v>
+        <v>212.62</v>
       </c>
       <c r="N112">
-        <v>1003.73</v>
+        <v>1002.98</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P112">
         <v>0.2</v>
@@ -15478,60 +15478,60 @@
         <v>0.2</v>
       </c>
       <c r="R112">
-        <v>40.549999999999997</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="S112">
-        <v>35.28</v>
+        <v>35.56</v>
       </c>
       <c r="T112">
-        <v>33.5</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45873.958333333336</v>
+        <v>45876.958333333336</v>
       </c>
       <c r="B113">
-        <v>33.979999999999997</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="C113">
-        <v>33.93</v>
+        <v>33.4</v>
       </c>
       <c r="D113">
-        <v>36.96</v>
+        <v>36.94</v>
       </c>
       <c r="E113">
-        <v>4.8600000000000003</v>
+        <v>1.71</v>
       </c>
       <c r="F113">
-        <v>331.26</v>
+        <v>173.14</v>
       </c>
       <c r="G113">
-        <v>21.44</v>
+        <v>24.45</v>
       </c>
       <c r="H113">
-        <v>32.76</v>
+        <v>32.36</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>23.04</v>
+        <v>2.52</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>1003.43</v>
+        <v>1003.18</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P113">
         <v>0.2</v>
@@ -15540,60 +15540,60 @@
         <v>0.2</v>
       </c>
       <c r="R113">
-        <v>38.270000000000003</v>
+        <v>37.96</v>
       </c>
       <c r="S113">
-        <v>35.28</v>
+        <v>35.56</v>
       </c>
       <c r="T113">
-        <v>33.49</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45874.083333333336</v>
+        <v>45877.083333333336</v>
       </c>
       <c r="B114">
-        <v>31.82</v>
+        <v>30.81</v>
       </c>
       <c r="C114">
-        <v>31.78</v>
+        <v>30.54</v>
       </c>
       <c r="D114">
-        <v>37.03</v>
+        <v>37.01</v>
       </c>
       <c r="E114">
-        <v>4.4400000000000004</v>
+        <v>2.27</v>
       </c>
       <c r="F114">
-        <v>135.97999999999999</v>
+        <v>177.81</v>
       </c>
       <c r="G114">
-        <v>21.77</v>
+        <v>25.8</v>
       </c>
       <c r="H114">
-        <v>30.48</v>
+        <v>29.72</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K114">
         <v>0</v>
       </c>
       <c r="L114">
-        <v>17.649999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1002.77</v>
+        <v>1002.89</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P114">
         <v>0.2</v>
@@ -15602,60 +15602,60 @@
         <v>0.2</v>
       </c>
       <c r="R114">
-        <v>36.15</v>
+        <v>35.61</v>
       </c>
       <c r="S114">
-        <v>35.31</v>
+        <v>35.53</v>
       </c>
       <c r="T114">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45874.208333333336</v>
+        <v>45877.208333333336</v>
       </c>
       <c r="B115">
-        <v>30.71</v>
+        <v>30.76</v>
       </c>
       <c r="C115">
-        <v>30.37</v>
+        <v>29.48</v>
       </c>
       <c r="D115">
-        <v>31.8</v>
+        <v>31.47</v>
       </c>
       <c r="E115">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="F115">
-        <v>329.35</v>
+        <v>254.09</v>
       </c>
       <c r="G115">
-        <v>22.48</v>
+        <v>25.37</v>
       </c>
       <c r="H115">
-        <v>29.37</v>
+        <v>29.62</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>7.33</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M115">
-        <v>4.03</v>
+        <v>3.75</v>
       </c>
       <c r="N115">
-        <v>1004</v>
+        <v>1004.28</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P115">
         <v>0.2</v>
@@ -15664,60 +15664,60 @@
         <v>0.2</v>
       </c>
       <c r="R115">
-        <v>34.26</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="S115">
-        <v>35.33</v>
+        <v>35.51</v>
       </c>
       <c r="T115">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45874.333333333336</v>
+        <v>45877.333333333336</v>
       </c>
       <c r="B116">
-        <v>38.89</v>
+        <v>38.86</v>
       </c>
       <c r="C116">
-        <v>30.32</v>
+        <v>29.47</v>
       </c>
       <c r="D116">
-        <v>38.93</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="E116">
-        <v>4.74</v>
+        <v>4.42</v>
       </c>
       <c r="F116">
-        <v>95.36</v>
+        <v>307.87</v>
       </c>
       <c r="G116">
-        <v>18.2</v>
+        <v>19.75</v>
       </c>
       <c r="H116">
-        <v>38.5</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>8.93</v>
+        <v>2.66</v>
       </c>
       <c r="M116">
-        <v>184.99</v>
+        <v>183.12</v>
       </c>
       <c r="N116">
-        <v>1004.08</v>
+        <v>1004.69</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P116">
         <v>0.2</v>
@@ -15726,60 +15726,60 @@
         <v>0.2</v>
       </c>
       <c r="R116">
-        <v>35.19</v>
+        <v>34.72</v>
       </c>
       <c r="S116">
-        <v>35.26</v>
+        <v>35.29</v>
       </c>
       <c r="T116">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45874.458333333336</v>
+        <v>45877.458333333336</v>
       </c>
       <c r="B117">
-        <v>43.65</v>
+        <v>43.74</v>
       </c>
       <c r="C117">
         <v>38.89</v>
       </c>
       <c r="D117">
-        <v>43.71</v>
+        <v>43.74</v>
       </c>
       <c r="E117">
-        <v>5.96</v>
+        <v>4.09</v>
       </c>
       <c r="F117">
-        <v>306.54000000000002</v>
+        <v>100.93</v>
       </c>
       <c r="G117">
-        <v>16.2</v>
+        <v>17.23</v>
       </c>
       <c r="H117">
-        <v>44.5</v>
+        <v>45.25</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>3.31</v>
+        <v>6.16</v>
       </c>
       <c r="M117">
-        <v>904.89</v>
+        <v>901.81</v>
       </c>
       <c r="N117">
-        <v>1002.55</v>
+        <v>1003.08</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P117">
         <v>0.2</v>
@@ -15788,60 +15788,60 @@
         <v>0.2</v>
       </c>
       <c r="R117">
-        <v>39.159999999999997</v>
+        <v>39.24</v>
       </c>
       <c r="S117">
-        <v>35.26</v>
+        <v>35.28</v>
       </c>
       <c r="T117">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45874.583333333336</v>
+        <v>45877.583333333336</v>
       </c>
       <c r="B118">
-        <v>44.43</v>
+        <v>44.93</v>
       </c>
       <c r="C118">
-        <v>38.9</v>
+        <v>38.89</v>
       </c>
       <c r="D118">
-        <v>44.88</v>
+        <v>45.02</v>
       </c>
       <c r="E118">
-        <v>7.39</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F118">
-        <v>284.14999999999998</v>
+        <v>116.9</v>
       </c>
       <c r="G118">
-        <v>16.63</v>
+        <v>16.53</v>
       </c>
       <c r="H118">
-        <v>45.71</v>
+        <v>46.37</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>5.14</v>
+        <v>10.76</v>
       </c>
       <c r="M118">
-        <v>917.37</v>
+        <v>914.18</v>
       </c>
       <c r="N118">
-        <v>1000.78</v>
+        <v>1001.1</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P118">
         <v>0.2</v>
@@ -15850,60 +15850,60 @@
         <v>0.2</v>
       </c>
       <c r="R118">
-        <v>42.64</v>
+        <v>43.26</v>
       </c>
       <c r="S118">
-        <v>35.26</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="T118">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45874.708333333336</v>
+        <v>45877.708333333336</v>
       </c>
       <c r="B119">
-        <v>41.54</v>
+        <v>42.26</v>
       </c>
       <c r="C119">
-        <v>41.44</v>
+        <v>42.22</v>
       </c>
       <c r="D119">
-        <v>44.42</v>
+        <v>45.12</v>
       </c>
       <c r="E119">
-        <v>5.55</v>
+        <v>4.63</v>
       </c>
       <c r="F119">
-        <v>292.99</v>
+        <v>119.11</v>
       </c>
       <c r="G119">
-        <v>18.87</v>
+        <v>18.79</v>
       </c>
       <c r="H119">
-        <v>42.03</v>
+        <v>42.83</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>3.54</v>
+        <v>17.86</v>
       </c>
       <c r="M119">
-        <v>419.99</v>
+        <v>410.4</v>
       </c>
       <c r="N119">
-        <v>1001.13</v>
+        <v>1001.02</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P119">
         <v>0.2</v>
@@ -15912,60 +15912,60 @@
         <v>0.2</v>
       </c>
       <c r="R119">
-        <v>42.89</v>
+        <v>43.62</v>
       </c>
       <c r="S119">
-        <v>35.33</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="T119">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45874.833333333336</v>
+        <v>45877.833333333336</v>
       </c>
       <c r="B120">
-        <v>36.75</v>
+        <v>38.03</v>
       </c>
       <c r="C120">
-        <v>36.880000000000003</v>
+        <v>37.92</v>
       </c>
       <c r="D120">
-        <v>44.45</v>
+        <v>45.25</v>
       </c>
       <c r="E120">
-        <v>4.08</v>
+        <v>4.26</v>
       </c>
       <c r="F120">
-        <v>102.78</v>
+        <v>128.07</v>
       </c>
       <c r="G120">
-        <v>24.19</v>
+        <v>22.69</v>
       </c>
       <c r="H120">
-        <v>36.51</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>24.34</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="M120">
-        <v>214.33</v>
+        <v>209.1</v>
       </c>
       <c r="N120">
-        <v>1002.96</v>
+        <v>1002.78</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P120">
         <v>0.2</v>
@@ -15974,60 +15974,60 @@
         <v>0.2</v>
       </c>
       <c r="R120">
-        <v>40.479999999999997</v>
+        <v>41.19</v>
       </c>
       <c r="S120">
-        <v>35.22</v>
+        <v>35.44</v>
       </c>
       <c r="T120">
-        <v>33.51</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45874.958333333336</v>
+        <v>45877.958333333336</v>
       </c>
       <c r="B121">
-        <v>33.89</v>
+        <v>34.17</v>
       </c>
       <c r="C121">
-        <v>33.979999999999997</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="D121">
-        <v>36.71</v>
+        <v>38.03</v>
       </c>
       <c r="E121">
-        <v>3.45</v>
+        <v>4.22</v>
       </c>
       <c r="F121">
-        <v>309.56</v>
+        <v>178.73</v>
       </c>
       <c r="G121">
-        <v>25.8</v>
+        <v>26.15</v>
       </c>
       <c r="H121">
-        <v>33.24</v>
+        <v>33.46</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>5.1100000000000003</v>
+        <v>13.33</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
       <c r="N121">
-        <v>1002.64</v>
+        <v>1002.8</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P121">
         <v>0.2</v>
@@ -16036,60 +16036,60 @@
         <v>0.2</v>
       </c>
       <c r="R121">
-        <v>38.17</v>
+        <v>38.76</v>
       </c>
       <c r="S121">
-        <v>35.21</v>
+        <v>35.44</v>
       </c>
       <c r="T121">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45875.083333333336</v>
+        <v>45878.083333333336</v>
       </c>
       <c r="B122">
-        <v>31.94</v>
+        <v>32.19</v>
       </c>
       <c r="C122">
-        <v>32.049999999999997</v>
+        <v>31.51</v>
       </c>
       <c r="D122">
-        <v>36.700000000000003</v>
+        <v>38.01</v>
       </c>
       <c r="E122">
-        <v>3.93</v>
+        <v>3.42</v>
       </c>
       <c r="F122">
-        <v>327.88</v>
+        <v>155.82</v>
       </c>
       <c r="G122">
-        <v>27.56</v>
+        <v>28.16</v>
       </c>
       <c r="H122">
-        <v>31.06</v>
+        <v>31.23</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>3.16</v>
+        <v>8.6</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1001.72</v>
+        <v>1002.35</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P122">
         <v>0.2</v>
@@ -16098,60 +16098,60 @@
         <v>0.2</v>
       </c>
       <c r="R122">
-        <v>35.93</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="S122">
-        <v>35.200000000000003</v>
+        <v>35.43</v>
       </c>
       <c r="T122">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45875.208333333336</v>
+        <v>45878.208333333336</v>
       </c>
       <c r="B123">
-        <v>30.44</v>
+        <v>31.32</v>
       </c>
       <c r="C123">
-        <v>30.12</v>
+        <v>30.83</v>
       </c>
       <c r="D123">
-        <v>32</v>
+        <v>32.42</v>
       </c>
       <c r="E123">
-        <v>3.74</v>
+        <v>3.83</v>
       </c>
       <c r="F123">
-        <v>323.45999999999998</v>
+        <v>90.75</v>
       </c>
       <c r="G123">
-        <v>28.48</v>
+        <v>26.88</v>
       </c>
       <c r="H123">
-        <v>29.6</v>
+        <v>30.11</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>22.88</v>
+        <v>15.6</v>
       </c>
       <c r="M123">
-        <v>3.96</v>
+        <v>3.59</v>
       </c>
       <c r="N123">
-        <v>1003.22</v>
+        <v>1003.67</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P123">
         <v>0.2</v>
@@ -16160,57 +16160,57 @@
         <v>0.2</v>
       </c>
       <c r="R123">
-        <v>34.06</v>
+        <v>34.57</v>
       </c>
       <c r="S123">
-        <v>35.200000000000003</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="T123">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45875.333333333336</v>
+        <v>45878.333333333336</v>
       </c>
       <c r="B124">
-        <v>38.9</v>
+        <v>39.6</v>
       </c>
       <c r="C124">
-        <v>30.15</v>
+        <v>30.91</v>
       </c>
       <c r="D124">
-        <v>38.89</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="E124">
-        <v>5.16</v>
+        <v>6.52</v>
       </c>
       <c r="F124">
-        <v>116.3</v>
+        <v>89.43</v>
       </c>
       <c r="G124">
-        <v>20.420000000000002</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H124">
-        <v>38.85</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>28.69</v>
+        <v>13.5</v>
       </c>
       <c r="M124">
-        <v>184.44</v>
+        <v>181.4</v>
       </c>
       <c r="N124">
-        <v>1003.31</v>
+        <v>1003.64</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -16222,57 +16222,57 @@
         <v>0.2</v>
       </c>
       <c r="R124">
-        <v>35.06</v>
+        <v>35.54</v>
       </c>
       <c r="S124">
-        <v>35.11</v>
+        <v>35.35</v>
       </c>
       <c r="T124">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45875.458333333336</v>
+        <v>45878.458333333336</v>
       </c>
       <c r="B125">
-        <v>43.98</v>
+        <v>44.12</v>
       </c>
       <c r="C125">
-        <v>38.950000000000003</v>
+        <v>39.56</v>
       </c>
       <c r="D125">
-        <v>44</v>
+        <v>44.12</v>
       </c>
       <c r="E125">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="F125">
-        <v>117.13</v>
+        <v>92.92</v>
       </c>
       <c r="G125">
-        <v>16.989999999999998</v>
+        <v>17.95</v>
       </c>
       <c r="H125">
-        <v>44.95</v>
+        <v>46.17</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>49.49</v>
+        <v>19.47</v>
       </c>
       <c r="M125">
-        <v>900.22</v>
+        <v>896.28</v>
       </c>
       <c r="N125">
-        <v>1001.98</v>
+        <v>1002.3</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -16284,57 +16284,57 @@
         <v>0.2</v>
       </c>
       <c r="R125">
-        <v>39.08</v>
+        <v>39.61</v>
       </c>
       <c r="S125">
-        <v>35.11</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="T125">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45875.583333333336</v>
+        <v>45878.583333333336</v>
       </c>
       <c r="B126">
-        <v>45.14</v>
+        <v>45.01</v>
       </c>
       <c r="C126">
-        <v>38.94</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="D126">
-        <v>45.39</v>
+        <v>45.29</v>
       </c>
       <c r="E126">
-        <v>6.81</v>
+        <v>5.39</v>
       </c>
       <c r="F126">
-        <v>116.37</v>
+        <v>77.91</v>
       </c>
       <c r="G126">
-        <v>16.899999999999999</v>
+        <v>17.54</v>
       </c>
       <c r="H126">
-        <v>46.74</v>
+        <v>47.28</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <v>47.52</v>
+        <v>11.93</v>
       </c>
       <c r="M126">
-        <v>911.99</v>
+        <v>907.06</v>
       </c>
       <c r="N126">
-        <v>1000.26</v>
+        <v>1000.34</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -16346,57 +16346,57 @@
         <v>0.2</v>
       </c>
       <c r="R126">
-        <v>42.64</v>
+        <v>43.31</v>
       </c>
       <c r="S126">
-        <v>35.18</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="T126">
-        <v>33.56</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45875.708333333336</v>
+        <v>45878.708333333336</v>
       </c>
       <c r="B127">
-        <v>42.37</v>
+        <v>42.36</v>
       </c>
       <c r="C127">
-        <v>42.33</v>
+        <v>42.34</v>
       </c>
       <c r="D127">
-        <v>45.22</v>
+        <v>45.15</v>
       </c>
       <c r="E127">
-        <v>5.47</v>
+        <v>4.51</v>
       </c>
       <c r="F127">
-        <v>124.13</v>
+        <v>84.36</v>
       </c>
       <c r="G127">
-        <v>19.55</v>
+        <v>20.75</v>
       </c>
       <c r="H127">
-        <v>43.44</v>
+        <v>44.4</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>42.52</v>
+        <v>3.99</v>
       </c>
       <c r="M127">
-        <v>415.43</v>
+        <v>407.68</v>
       </c>
       <c r="N127">
-        <v>1001.05</v>
+        <v>1000.54</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -16408,57 +16408,57 @@
         <v>0.2</v>
       </c>
       <c r="R127">
-        <v>42.98</v>
+        <v>43.63</v>
       </c>
       <c r="S127">
-        <v>35.26</v>
+        <v>35.5</v>
       </c>
       <c r="T127">
-        <v>33.56</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45875.833333333336</v>
+        <v>45878.833333333336</v>
       </c>
       <c r="B128">
-        <v>37.33</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="C128">
-        <v>37.340000000000003</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="D128">
-        <v>45.17</v>
+        <v>45.09</v>
       </c>
       <c r="E128">
-        <v>3.77</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F128">
-        <v>141.56</v>
+        <v>78.17</v>
       </c>
       <c r="G128">
-        <v>27.13</v>
+        <v>25.31</v>
       </c>
       <c r="H128">
-        <v>37.770000000000003</v>
+        <v>38.15</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>63.76</v>
+        <v>25.45</v>
       </c>
       <c r="M128">
-        <v>211.96</v>
+        <v>207.57</v>
       </c>
       <c r="N128">
-        <v>1003.09</v>
+        <v>1002.45</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -16470,57 +16470,57 @@
         <v>0.2</v>
       </c>
       <c r="R128">
-        <v>40.81</v>
+        <v>41.26</v>
       </c>
       <c r="S128">
-        <v>35.35</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="T128">
-        <v>33.56</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45875.958333333336</v>
+        <v>45878.958333333336</v>
       </c>
       <c r="B129">
-        <v>34.14</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C129">
-        <v>34.1</v>
+        <v>34.31</v>
       </c>
       <c r="D129">
-        <v>37.35</v>
+        <v>37.58</v>
       </c>
       <c r="E129">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="F129">
-        <v>155.15</v>
+        <v>107.15</v>
       </c>
       <c r="G129">
-        <v>31.64</v>
+        <v>27.85</v>
       </c>
       <c r="H129">
-        <v>33.89</v>
+        <v>33.99</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
       <c r="L129">
-        <v>37.18</v>
+        <v>19.53</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
       <c r="N129">
-        <v>1002.86</v>
+        <v>1002.24</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -16532,57 +16532,57 @@
         <v>0.2</v>
       </c>
       <c r="R129">
-        <v>38.590000000000003</v>
+        <v>39</v>
       </c>
       <c r="S129">
-        <v>35.35</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="T129">
-        <v>33.56</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45876.083333333336</v>
+        <v>45879.083333333336</v>
       </c>
       <c r="B130">
-        <v>31.6</v>
+        <v>31.62</v>
       </c>
       <c r="C130">
-        <v>31.44</v>
+        <v>31.4</v>
       </c>
       <c r="D130">
-        <v>37.340000000000003</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="E130">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="F130">
-        <v>145.11000000000001</v>
+        <v>88.18</v>
       </c>
       <c r="G130">
-        <v>33.96</v>
+        <v>30.04</v>
       </c>
       <c r="H130">
-        <v>30.87</v>
+        <v>31.17</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
       <c r="L130">
-        <v>60.49</v>
+        <v>20.7</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <v>1002.1</v>
+        <v>1001.64</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -16594,13 +16594,13 @@
         <v>0.2</v>
       </c>
       <c r="R130">
-        <v>36.28</v>
+        <v>36.67</v>
       </c>
       <c r="S130">
-        <v>35.33</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="T130">
-        <v>33.58</v>
+        <v>33.76</v>
       </c>
     </row>
   </sheetData>
